--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/全国居民消费价格分类指数(上年同期=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/全国居民消费价格分类指数(上年同期=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,94 +483,94 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="C2" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F2" t="n">
-        <v>104.7</v>
+        <v>103.4</v>
       </c>
       <c r="G2" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="J2" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="C3" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G3" t="n">
         <v>100.3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100.2</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="J3" t="n">
-        <v>97.2</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="D4" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
         <v>97.7</v>
       </c>
       <c r="F4" t="n">
-        <v>104.8</v>
+        <v>103.7</v>
       </c>
       <c r="G4" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="J4" t="n">
         <v>97.40000000000001</v>
@@ -579,14 +579,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D5" t="n">
         <v>96.09999999999999</v>
@@ -595,174 +595,174 @@
         <v>97.7</v>
       </c>
       <c r="F5" t="n">
-        <v>103.4</v>
+        <v>104</v>
       </c>
       <c r="G5" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="J5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D6" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E6" t="n">
         <v>97.7</v>
       </c>
       <c r="F6" t="n">
-        <v>103.5</v>
+        <v>104.4</v>
       </c>
       <c r="G6" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="J6" t="n">
-        <v>97.8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>99.8</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="E7" t="n">
         <v>97.7</v>
       </c>
       <c r="F7" t="n">
-        <v>103.7</v>
+        <v>104.7</v>
       </c>
       <c r="G7" t="n">
         <v>100.1</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>99.8</v>
       </c>
       <c r="D8" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>97.7</v>
       </c>
       <c r="F8" t="n">
-        <v>104</v>
+        <v>104.8</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="J8" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C9" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="F9" t="n">
-        <v>104.4</v>
+        <v>104.7</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="J9" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C10" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="D10" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="E10" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="F10" t="n">
         <v>104.7</v>
       </c>
       <c r="G10" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J10" t="n">
         <v>97.09999999999999</v>
@@ -771,62 +771,62 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C11" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="D11" t="n">
-        <v>96.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="E11" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="F11" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="G11" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>93.8</v>
       </c>
       <c r="C12" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D12" t="n">
-        <v>96.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E12" t="n">
         <v>97.8</v>
       </c>
       <c r="F12" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="G12" t="n">
         <v>100.2</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="J12" t="n">
         <v>97.2</v>
@@ -835,228 +835,228 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>93.8</v>
       </c>
       <c r="C13" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D13" t="n">
-        <v>96.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F13" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="G13" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>99.4956</v>
       </c>
       <c r="C14" t="n">
-        <v>100.1</v>
+        <v>100.4535</v>
       </c>
       <c r="D14" t="n">
-        <v>107.6</v>
+        <v>108.7902</v>
       </c>
       <c r="E14" t="n">
-        <v>97.8</v>
+        <v>98.1272</v>
       </c>
       <c r="F14" t="n">
-        <v>101.3</v>
+        <v>102.5357</v>
       </c>
       <c r="G14" t="n">
-        <v>100.9</v>
+        <v>101.1948</v>
       </c>
       <c r="H14" t="n">
-        <v>99.59999999999999</v>
+        <v>99.4552</v>
       </c>
       <c r="I14" t="n">
-        <v>98.09999999999999</v>
+        <v>98.6741</v>
       </c>
       <c r="J14" t="n">
-        <v>100.2</v>
+        <v>99.6174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="D15" t="n">
-        <v>107.1</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="F15" t="n">
-        <v>101.2</v>
+        <v>102.5</v>
       </c>
       <c r="G15" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="H15" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="I15" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J15" t="n">
         <v>98.09999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="D16" t="n">
-        <v>106.6</v>
+        <v>109.2</v>
       </c>
       <c r="E16" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="F16" t="n">
-        <v>101.2</v>
+        <v>102.4</v>
       </c>
       <c r="G16" t="n">
         <v>100.7</v>
       </c>
       <c r="H16" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="I16" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.4956</v>
+        <v>98.7</v>
       </c>
       <c r="C17" t="n">
-        <v>100.4535</v>
+        <v>100.4</v>
       </c>
       <c r="D17" t="n">
-        <v>108.7902</v>
+        <v>109.3</v>
       </c>
       <c r="E17" t="n">
-        <v>98.1272</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5357</v>
+        <v>102.2</v>
       </c>
       <c r="G17" t="n">
-        <v>101.1948</v>
+        <v>100.9</v>
       </c>
       <c r="H17" t="n">
-        <v>99.4552</v>
+        <v>99.5</v>
       </c>
       <c r="I17" t="n">
-        <v>98.6741</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>99.6174</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C18" t="n">
         <v>100.4</v>
       </c>
       <c r="D18" t="n">
-        <v>109</v>
+        <v>109.3</v>
       </c>
       <c r="E18" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>102.5</v>
+        <v>102</v>
       </c>
       <c r="G18" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="H18" t="n">
         <v>99.5</v>
       </c>
       <c r="I18" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="D19" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="E19" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="F19" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="G19" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="H19" t="n">
         <v>99.5</v>
@@ -1065,32 +1065,32 @@
         <v>98.09999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>98.40000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="C20" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="D20" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="E20" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F20" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="G20" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="H20" t="n">
         <v>99.5</v>
@@ -1099,32 +1099,32 @@
         <v>98.09999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="C21" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="D21" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="E21" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F21" t="n">
-        <v>102</v>
+        <v>101.5</v>
       </c>
       <c r="G21" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="H21" t="n">
         <v>99.5</v>
@@ -1133,103 +1133,103 @@
         <v>98.09999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C22" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D22" t="n">
-        <v>109.3</v>
+        <v>108.3</v>
       </c>
       <c r="E22" t="n">
         <v>97.8</v>
       </c>
       <c r="F22" t="n">
-        <v>101.8</v>
+        <v>101.3</v>
       </c>
       <c r="G22" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="H22" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D23" t="n">
-        <v>109.2</v>
+        <v>107.6</v>
       </c>
       <c r="E23" t="n">
         <v>97.8</v>
       </c>
       <c r="F23" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="G23" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="H23" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I23" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>99</v>
       </c>
       <c r="C24" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>109.2</v>
+        <v>107.1</v>
       </c>
       <c r="E24" t="n">
         <v>97.8</v>
       </c>
       <c r="F24" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="G24" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="H24" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="I24" t="n">
         <v>98.09999999999999</v>
@@ -1241,134 +1241,134 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>99</v>
       </c>
       <c r="C25" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>108.3</v>
+        <v>106.6</v>
       </c>
       <c r="E25" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F25" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="G25" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="H25" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="I25" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D26" t="n">
-        <v>100.6</v>
+        <v>101.3</v>
       </c>
       <c r="E26" t="n">
         <v>97.5</v>
       </c>
       <c r="F26" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="G26" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="I26" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="J26" t="n">
-        <v>99.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I27" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="C27" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="E27" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>97.7</v>
-      </c>
       <c r="J27" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="E28" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="G28" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="I28" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="J28" t="n">
         <v>99.40000000000001</v>
@@ -1377,128 +1377,128 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.3</v>
+        <v>98.5</v>
       </c>
       <c r="C29" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="D29" t="n">
-        <v>101.3</v>
+        <v>100.6</v>
       </c>
       <c r="E29" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="G29" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="H29" t="n">
         <v>100.2</v>
       </c>
       <c r="I29" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="E30" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="G30" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="H30" t="n">
         <v>100.2</v>
       </c>
       <c r="I30" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="J30" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C31" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="E31" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H31" t="n">
         <v>100.2</v>
       </c>
       <c r="I31" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="C32" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="E32" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F32" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="H32" t="n">
         <v>100.2</v>
@@ -1507,91 +1507,91 @@
         <v>97.90000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C33" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="E33" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F33" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G33" t="n">
         <v>99.2</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I33" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="J33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E34" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G34" t="n">
         <v>99.2</v>
       </c>
       <c r="H34" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I34" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="J34" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E35" t="n">
         <v>97.5</v>
@@ -1603,29 +1603,29 @@
         <v>99.2</v>
       </c>
       <c r="H35" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="J35" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D36" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E36" t="n">
         <v>97.5</v>
@@ -1637,26 +1637,26 @@
         <v>99.2</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="J36" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D37" t="n">
         <v>100.6</v>
@@ -1671,5317 +1671,5317 @@
         <v>99.2</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.8</v>
+        <v>98.7</v>
       </c>
       <c r="C38" t="n">
-        <v>100.8</v>
+        <v>98.84</v>
       </c>
       <c r="D38" t="n">
-        <v>101.4</v>
+        <v>100.94</v>
       </c>
       <c r="E38" t="n">
-        <v>97.3</v>
+        <v>97.19</v>
       </c>
       <c r="F38" t="n">
-        <v>101.8</v>
+        <v>100.95</v>
       </c>
       <c r="G38" t="n">
-        <v>100.8</v>
+        <v>100.39</v>
       </c>
       <c r="H38" t="n">
-        <v>99.7</v>
+        <v>99.53</v>
       </c>
       <c r="I38" t="n">
-        <v>97.7</v>
+        <v>97.08</v>
       </c>
       <c r="J38" t="n">
-        <v>102.4</v>
+        <v>102.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.81010000000001</v>
+        <v>98.3224</v>
       </c>
       <c r="C39" t="n">
-        <v>100.8292</v>
+        <v>98.8669</v>
       </c>
       <c r="D39" t="n">
-        <v>101.3375</v>
+        <v>101.1444</v>
       </c>
       <c r="E39" t="n">
-        <v>97.3777</v>
+        <v>97.13330000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>101.9617</v>
+        <v>100.9099</v>
       </c>
       <c r="G39" t="n">
-        <v>100.985</v>
+        <v>100.2902</v>
       </c>
       <c r="H39" t="n">
-        <v>99.7604</v>
+        <v>99.4987</v>
       </c>
       <c r="I39" t="n">
-        <v>97.73739999999999</v>
+        <v>97.0716</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9633</v>
+        <v>102.1076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.7976</v>
+        <v>98.2</v>
       </c>
       <c r="C40" t="n">
-        <v>100.8728</v>
+        <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>101.3259</v>
+        <v>101.3</v>
       </c>
       <c r="E40" t="n">
-        <v>97.4151</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0883</v>
+        <v>101.3</v>
       </c>
       <c r="G40" t="n">
-        <v>101.1689</v>
+        <v>100.5</v>
       </c>
       <c r="H40" t="n">
-        <v>99.849</v>
+        <v>99.5</v>
       </c>
       <c r="I40" t="n">
-        <v>97.7756</v>
+        <v>97.2</v>
       </c>
       <c r="J40" t="n">
-        <v>103.4331</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.7</v>
+        <v>98.1564</v>
       </c>
       <c r="C41" t="n">
-        <v>98.84</v>
+        <v>99.4776</v>
       </c>
       <c r="D41" t="n">
-        <v>100.94</v>
+        <v>101.292</v>
       </c>
       <c r="E41" t="n">
-        <v>97.19</v>
+        <v>97.13809999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>100.95</v>
+        <v>101.4469</v>
       </c>
       <c r="G41" t="n">
-        <v>100.39</v>
+        <v>100.6349</v>
       </c>
       <c r="H41" t="n">
-        <v>99.53</v>
+        <v>99.46729999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>97.08</v>
+        <v>97.2902</v>
       </c>
       <c r="J41" t="n">
-        <v>102.38</v>
+        <v>102.6573</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.3224</v>
+        <v>98.05289999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>98.8669</v>
+        <v>100.0166</v>
       </c>
       <c r="D42" t="n">
-        <v>101.1444</v>
+        <v>101.2805</v>
       </c>
       <c r="E42" t="n">
-        <v>97.13330000000001</v>
+        <v>97.1835</v>
       </c>
       <c r="F42" t="n">
-        <v>100.9099</v>
+        <v>101.5121</v>
       </c>
       <c r="G42" t="n">
-        <v>100.2902</v>
+        <v>100.6407</v>
       </c>
       <c r="H42" t="n">
-        <v>99.4987</v>
+        <v>99.4627</v>
       </c>
       <c r="I42" t="n">
-        <v>97.0716</v>
+        <v>97.351</v>
       </c>
       <c r="J42" t="n">
-        <v>102.1076</v>
+        <v>102.4995</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="C43" t="n">
-        <v>99</v>
+        <v>100.4</v>
       </c>
       <c r="D43" t="n">
         <v>101.3</v>
       </c>
       <c r="E43" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F43" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="G43" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="H43" t="n">
         <v>99.5</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>102.5</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.1564</v>
+        <v>97.9366</v>
       </c>
       <c r="C44" t="n">
-        <v>99.4776</v>
+        <v>100.5501</v>
       </c>
       <c r="D44" t="n">
-        <v>101.292</v>
+        <v>101.3614</v>
       </c>
       <c r="E44" t="n">
-        <v>97.13809999999999</v>
+        <v>97.267</v>
       </c>
       <c r="F44" t="n">
-        <v>101.4469</v>
+        <v>101.7143</v>
       </c>
       <c r="G44" t="n">
-        <v>100.6349</v>
+        <v>100.5807</v>
       </c>
       <c r="H44" t="n">
-        <v>99.46729999999999</v>
+        <v>99.5681</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2902</v>
+        <v>97.5001</v>
       </c>
       <c r="J44" t="n">
-        <v>102.6573</v>
+        <v>101.9967</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.05289999999999</v>
+        <v>97.904</v>
       </c>
       <c r="C45" t="n">
-        <v>100.0166</v>
+        <v>100.6558</v>
       </c>
       <c r="D45" t="n">
-        <v>101.2805</v>
+        <v>101.3922</v>
       </c>
       <c r="E45" t="n">
-        <v>97.1835</v>
+        <v>97.2908</v>
       </c>
       <c r="F45" t="n">
-        <v>101.5121</v>
+        <v>101.7753</v>
       </c>
       <c r="G45" t="n">
-        <v>100.6407</v>
+        <v>100.6215</v>
       </c>
       <c r="H45" t="n">
-        <v>99.4627</v>
+        <v>99.6126</v>
       </c>
       <c r="I45" t="n">
-        <v>97.351</v>
+        <v>97.57089999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>102.4995</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98</v>
+        <v>97.8785</v>
       </c>
       <c r="C46" t="n">
-        <v>100.4</v>
+        <v>100.7477</v>
       </c>
       <c r="D46" t="n">
-        <v>101.3</v>
+        <v>101.3622</v>
       </c>
       <c r="E46" t="n">
-        <v>97.2</v>
+        <v>97.318</v>
       </c>
       <c r="F46" t="n">
-        <v>101.6</v>
+        <v>101.7895</v>
       </c>
       <c r="G46" t="n">
-        <v>100.6</v>
+        <v>100.6753</v>
       </c>
       <c r="H46" t="n">
-        <v>99.5</v>
+        <v>99.649</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40000000000001</v>
+        <v>97.6191</v>
       </c>
       <c r="J46" t="n">
-        <v>102.2</v>
+        <v>102.1525</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.9366</v>
+        <v>97.8</v>
       </c>
       <c r="C47" t="n">
-        <v>100.5501</v>
+        <v>100.8</v>
       </c>
       <c r="D47" t="n">
-        <v>101.3614</v>
+        <v>101.4</v>
       </c>
       <c r="E47" t="n">
-        <v>97.267</v>
+        <v>97.3</v>
       </c>
       <c r="F47" t="n">
-        <v>101.7143</v>
+        <v>101.8</v>
       </c>
       <c r="G47" t="n">
-        <v>100.5807</v>
+        <v>100.8</v>
       </c>
       <c r="H47" t="n">
-        <v>99.5681</v>
+        <v>99.7</v>
       </c>
       <c r="I47" t="n">
-        <v>97.5001</v>
+        <v>97.7</v>
       </c>
       <c r="J47" t="n">
-        <v>101.9967</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.904</v>
+        <v>97.81010000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>100.6558</v>
+        <v>100.8292</v>
       </c>
       <c r="D48" t="n">
-        <v>101.3922</v>
+        <v>101.3375</v>
       </c>
       <c r="E48" t="n">
-        <v>97.2908</v>
+        <v>97.3777</v>
       </c>
       <c r="F48" t="n">
-        <v>101.7753</v>
+        <v>101.9617</v>
       </c>
       <c r="G48" t="n">
-        <v>100.6215</v>
+        <v>100.985</v>
       </c>
       <c r="H48" t="n">
-        <v>99.6126</v>
+        <v>99.7604</v>
       </c>
       <c r="I48" t="n">
-        <v>97.57089999999999</v>
+        <v>97.73739999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>102</v>
+        <v>102.9633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>97.8785</v>
+        <v>97.7976</v>
       </c>
       <c r="C49" t="n">
-        <v>100.7477</v>
+        <v>100.8728</v>
       </c>
       <c r="D49" t="n">
-        <v>101.3622</v>
+        <v>101.3259</v>
       </c>
       <c r="E49" t="n">
-        <v>97.318</v>
+        <v>97.4151</v>
       </c>
       <c r="F49" t="n">
-        <v>101.7895</v>
+        <v>102.0883</v>
       </c>
       <c r="G49" t="n">
-        <v>100.6753</v>
+        <v>101.1689</v>
       </c>
       <c r="H49" t="n">
-        <v>99.649</v>
+        <v>99.849</v>
       </c>
       <c r="I49" t="n">
-        <v>97.6191</v>
+        <v>97.7756</v>
       </c>
       <c r="J49" t="n">
-        <v>102.1525</v>
+        <v>103.4331</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>98.496</v>
+        <v>98.7</v>
       </c>
       <c r="C50" t="n">
-        <v>99.7762</v>
+        <v>101.6</v>
       </c>
       <c r="D50" t="n">
-        <v>101.1159</v>
+        <v>101.8</v>
       </c>
       <c r="E50" t="n">
-        <v>98.5762</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>104.6441</v>
+        <v>102.8</v>
       </c>
       <c r="G50" t="n">
-        <v>104.1331</v>
+        <v>103.2</v>
       </c>
       <c r="H50" t="n">
-        <v>101.294</v>
+        <v>101</v>
       </c>
       <c r="I50" t="n">
-        <v>98.51900000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>110.8123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.51560000000001</v>
+        <v>98.04770000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>99.7217</v>
+        <v>101.5754</v>
       </c>
       <c r="D51" t="n">
-        <v>101.2019</v>
+        <v>100.9185</v>
       </c>
       <c r="E51" t="n">
-        <v>98.6092</v>
+        <v>98.1413</v>
       </c>
       <c r="F51" t="n">
-        <v>104.8016</v>
+        <v>102.8769</v>
       </c>
       <c r="G51" t="n">
-        <v>104.0141</v>
+        <v>102.6298</v>
       </c>
       <c r="H51" t="n">
-        <v>101.275</v>
+        <v>100.9393</v>
       </c>
       <c r="I51" t="n">
-        <v>98.4876</v>
+        <v>98.5213</v>
       </c>
       <c r="J51" t="n">
-        <v>110.35</v>
+        <v>106.7549</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>98.521</v>
+        <v>98.0446</v>
       </c>
       <c r="C52" t="n">
-        <v>99.68819999999999</v>
+        <v>101.5422</v>
       </c>
       <c r="D52" t="n">
-        <v>101.2901</v>
+        <v>100.7884</v>
       </c>
       <c r="E52" t="n">
-        <v>98.63679999999999</v>
+        <v>98.2069</v>
       </c>
       <c r="F52" t="n">
-        <v>104.8697</v>
+        <v>102.9786</v>
       </c>
       <c r="G52" t="n">
-        <v>103.8786</v>
+        <v>102.7655</v>
       </c>
       <c r="H52" t="n">
-        <v>101.2293</v>
+        <v>100.962</v>
       </c>
       <c r="I52" t="n">
-        <v>98.47580000000001</v>
+        <v>98.6661</v>
       </c>
       <c r="J52" t="n">
-        <v>109.8715</v>
+        <v>107.1238</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.7</v>
+        <v>98.12260000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>101.6</v>
+        <v>101.1105</v>
       </c>
       <c r="D53" t="n">
-        <v>101.8</v>
+        <v>100.8196</v>
       </c>
       <c r="E53" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2667</v>
       </c>
       <c r="F53" t="n">
-        <v>102.8</v>
+        <v>103.1879</v>
       </c>
       <c r="G53" t="n">
-        <v>103.2</v>
+        <v>103.0233</v>
       </c>
       <c r="H53" t="n">
-        <v>101</v>
+        <v>100.9953</v>
       </c>
       <c r="I53" t="n">
-        <v>98.40000000000001</v>
+        <v>98.6738</v>
       </c>
       <c r="J53" t="n">
-        <v>108</v>
+        <v>107.877</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98.04770000000001</v>
+        <v>98.22880000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>101.5754</v>
+        <v>100.6035</v>
       </c>
       <c r="D54" t="n">
-        <v>100.9185</v>
+        <v>100.8941</v>
       </c>
       <c r="E54" t="n">
-        <v>98.1413</v>
+        <v>98.30889999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>102.8769</v>
+        <v>103.4625</v>
       </c>
       <c r="G54" t="n">
-        <v>102.6298</v>
+        <v>103.2902</v>
       </c>
       <c r="H54" t="n">
-        <v>100.9393</v>
+        <v>101.0721</v>
       </c>
       <c r="I54" t="n">
-        <v>98.5213</v>
+        <v>98.6574</v>
       </c>
       <c r="J54" t="n">
-        <v>106.7549</v>
+        <v>108.6472</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.0446</v>
+        <v>98.31</v>
       </c>
       <c r="C55" t="n">
-        <v>101.5422</v>
+        <v>100.2608</v>
       </c>
       <c r="D55" t="n">
-        <v>100.7884</v>
+        <v>100.8645</v>
       </c>
       <c r="E55" t="n">
-        <v>98.2069</v>
+        <v>98.364</v>
       </c>
       <c r="F55" t="n">
-        <v>102.9786</v>
+        <v>103.7011</v>
       </c>
       <c r="G55" t="n">
-        <v>102.7655</v>
+        <v>103.5662</v>
       </c>
       <c r="H55" t="n">
-        <v>100.962</v>
+        <v>101.1454</v>
       </c>
       <c r="I55" t="n">
-        <v>98.6661</v>
+        <v>98.63930000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>107.1238</v>
+        <v>109.4928</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.12260000000001</v>
+        <v>98.37869999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>101.1105</v>
+        <v>100.0521</v>
       </c>
       <c r="D56" t="n">
-        <v>100.8196</v>
+        <v>100.9035</v>
       </c>
       <c r="E56" t="n">
-        <v>98.2667</v>
+        <v>98.43049999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>103.1879</v>
+        <v>103.8911</v>
       </c>
       <c r="G56" t="n">
-        <v>103.0233</v>
+        <v>103.8046</v>
       </c>
       <c r="H56" t="n">
-        <v>100.9953</v>
+        <v>101.2116</v>
       </c>
       <c r="I56" t="n">
-        <v>98.6738</v>
+        <v>98.6056</v>
       </c>
       <c r="J56" t="n">
-        <v>107.877</v>
+        <v>110.1879</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>98.22880000000001</v>
+        <v>98.4276</v>
       </c>
       <c r="C57" t="n">
-        <v>100.6035</v>
+        <v>99.9208</v>
       </c>
       <c r="D57" t="n">
-        <v>100.8941</v>
+        <v>100.9221</v>
       </c>
       <c r="E57" t="n">
-        <v>98.30889999999999</v>
+        <v>98.4833</v>
       </c>
       <c r="F57" t="n">
-        <v>103.4625</v>
+        <v>104.1557</v>
       </c>
       <c r="G57" t="n">
-        <v>103.2902</v>
+        <v>103.9838</v>
       </c>
       <c r="H57" t="n">
-        <v>101.0721</v>
+        <v>101.2566</v>
       </c>
       <c r="I57" t="n">
-        <v>98.6574</v>
+        <v>98.5732</v>
       </c>
       <c r="J57" t="n">
-        <v>108.6472</v>
+        <v>110.6448</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>98.31</v>
+        <v>98.47029999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>100.2608</v>
+        <v>99.8408</v>
       </c>
       <c r="D58" t="n">
-        <v>100.8645</v>
+        <v>101.027</v>
       </c>
       <c r="E58" t="n">
-        <v>98.364</v>
+        <v>98.5335</v>
       </c>
       <c r="F58" t="n">
-        <v>103.7011</v>
+        <v>104.4042</v>
       </c>
       <c r="G58" t="n">
-        <v>103.5662</v>
+        <v>104.1182</v>
       </c>
       <c r="H58" t="n">
-        <v>101.1454</v>
+        <v>101.2851</v>
       </c>
       <c r="I58" t="n">
-        <v>98.63930000000001</v>
+        <v>98.5557</v>
       </c>
       <c r="J58" t="n">
-        <v>109.4928</v>
+        <v>110.9025</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.37869999999999</v>
+        <v>98.496</v>
       </c>
       <c r="C59" t="n">
-        <v>100.0521</v>
+        <v>99.7762</v>
       </c>
       <c r="D59" t="n">
-        <v>100.9035</v>
+        <v>101.1159</v>
       </c>
       <c r="E59" t="n">
-        <v>98.43049999999999</v>
+        <v>98.5762</v>
       </c>
       <c r="F59" t="n">
-        <v>103.8911</v>
+        <v>104.6441</v>
       </c>
       <c r="G59" t="n">
-        <v>103.8046</v>
+        <v>104.1331</v>
       </c>
       <c r="H59" t="n">
-        <v>101.2116</v>
+        <v>101.294</v>
       </c>
       <c r="I59" t="n">
-        <v>98.6056</v>
+        <v>98.51900000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>110.1879</v>
+        <v>110.8123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>98.4276</v>
+        <v>98.51560000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>99.9208</v>
+        <v>99.7217</v>
       </c>
       <c r="D60" t="n">
-        <v>100.9221</v>
+        <v>101.2019</v>
       </c>
       <c r="E60" t="n">
-        <v>98.4833</v>
+        <v>98.6092</v>
       </c>
       <c r="F60" t="n">
-        <v>104.1557</v>
+        <v>104.8016</v>
       </c>
       <c r="G60" t="n">
-        <v>103.9838</v>
+        <v>104.0141</v>
       </c>
       <c r="H60" t="n">
-        <v>101.2566</v>
+        <v>101.275</v>
       </c>
       <c r="I60" t="n">
-        <v>98.5732</v>
+        <v>98.4876</v>
       </c>
       <c r="J60" t="n">
-        <v>110.6448</v>
+        <v>110.35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>98.47029999999999</v>
+        <v>98.521</v>
       </c>
       <c r="C61" t="n">
-        <v>99.8408</v>
+        <v>99.68819999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>101.027</v>
+        <v>101.2901</v>
       </c>
       <c r="E61" t="n">
-        <v>98.5335</v>
+        <v>98.63679999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>104.4042</v>
+        <v>104.8697</v>
       </c>
       <c r="G61" t="n">
-        <v>104.1182</v>
+        <v>103.8786</v>
       </c>
       <c r="H61" t="n">
-        <v>101.2851</v>
+        <v>101.2293</v>
       </c>
       <c r="I61" t="n">
-        <v>98.5557</v>
+        <v>98.47580000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>110.9025</v>
+        <v>109.8715</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>98.88339999999999</v>
+        <v>97.43219999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>99.78400000000001</v>
+        <v>99.23350000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>102.4587</v>
+        <v>101.6691</v>
       </c>
       <c r="E62" t="n">
-        <v>99.7568</v>
+        <v>99.04089999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>105.5577</v>
+        <v>105.5442</v>
       </c>
       <c r="G62" t="n">
-        <v>101.886</v>
+        <v>101.9088</v>
       </c>
       <c r="H62" t="n">
-        <v>100.4296</v>
+        <v>100.4606</v>
       </c>
       <c r="I62" t="n">
-        <v>98.1661</v>
+        <v>98.4319</v>
       </c>
       <c r="J62" t="n">
-        <v>103.111</v>
+        <v>104.04</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>98.9529</v>
+        <v>98.39109999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>99.84990000000001</v>
+        <v>99.2914</v>
       </c>
       <c r="D63" t="n">
-        <v>102.3376</v>
+        <v>102.4921</v>
       </c>
       <c r="E63" t="n">
-        <v>99.8275</v>
+        <v>99.12739999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>105.4798</v>
+        <v>105.5734</v>
       </c>
       <c r="G63" t="n">
-        <v>101.833</v>
+        <v>102.9277</v>
       </c>
       <c r="H63" t="n">
-        <v>100.4206</v>
+        <v>100.5264</v>
       </c>
       <c r="I63" t="n">
-        <v>98.2389</v>
+        <v>98.2804</v>
       </c>
       <c r="J63" t="n">
-        <v>102.9717</v>
+        <v>106.4263</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.0111</v>
+        <v>98.52589999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>99.9198</v>
+        <v>99.31399999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>102.2152</v>
+        <v>102.5908</v>
       </c>
       <c r="E64" t="n">
-        <v>99.8929</v>
+        <v>99.19450000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>105.437</v>
+        <v>105.6439</v>
       </c>
       <c r="G64" t="n">
-        <v>101.81</v>
+        <v>102.8477</v>
       </c>
       <c r="H64" t="n">
-        <v>100.4152</v>
+        <v>100.5656</v>
       </c>
       <c r="I64" t="n">
-        <v>98.3133</v>
+        <v>98.03189999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>102.9101</v>
+        <v>106.1407</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>97.43219999999999</v>
+        <v>98.54989999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>99.23350000000001</v>
+        <v>99.3218</v>
       </c>
       <c r="D65" t="n">
-        <v>101.6691</v>
+        <v>102.6426</v>
       </c>
       <c r="E65" t="n">
-        <v>99.04089999999999</v>
+        <v>99.26600000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>105.5442</v>
+        <v>105.6916</v>
       </c>
       <c r="G65" t="n">
-        <v>101.9088</v>
+        <v>102.5908</v>
       </c>
       <c r="H65" t="n">
-        <v>100.4606</v>
+        <v>100.5717</v>
       </c>
       <c r="I65" t="n">
-        <v>98.4319</v>
+        <v>97.92749999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>104.04</v>
+        <v>105.3649</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>98.39109999999999</v>
+        <v>98.5626</v>
       </c>
       <c r="C66" t="n">
-        <v>99.2914</v>
+        <v>99.3475</v>
       </c>
       <c r="D66" t="n">
-        <v>102.4921</v>
+        <v>102.6672</v>
       </c>
       <c r="E66" t="n">
-        <v>99.12739999999999</v>
+        <v>99.3506</v>
       </c>
       <c r="F66" t="n">
-        <v>105.5734</v>
+        <v>105.7168</v>
       </c>
       <c r="G66" t="n">
-        <v>102.9277</v>
+        <v>102.4242</v>
       </c>
       <c r="H66" t="n">
-        <v>100.5264</v>
+        <v>100.5347</v>
       </c>
       <c r="I66" t="n">
-        <v>98.2804</v>
+        <v>97.9055</v>
       </c>
       <c r="J66" t="n">
-        <v>106.4263</v>
+        <v>104.8498</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.52589999999999</v>
+        <v>98.58459999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>99.31399999999999</v>
+        <v>99.40309999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>102.5908</v>
+        <v>102.6777</v>
       </c>
       <c r="E67" t="n">
-        <v>99.19450000000001</v>
+        <v>99.4541</v>
       </c>
       <c r="F67" t="n">
-        <v>105.6439</v>
+        <v>105.7389</v>
       </c>
       <c r="G67" t="n">
-        <v>102.8477</v>
+        <v>102.2872</v>
       </c>
       <c r="H67" t="n">
-        <v>100.5656</v>
+        <v>100.4966</v>
       </c>
       <c r="I67" t="n">
-        <v>98.03189999999999</v>
+        <v>97.9335</v>
       </c>
       <c r="J67" t="n">
-        <v>106.1407</v>
+        <v>104.3948</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.54989999999999</v>
+        <v>98.6476</v>
       </c>
       <c r="C68" t="n">
-        <v>99.3218</v>
+        <v>99.5153</v>
       </c>
       <c r="D68" t="n">
-        <v>102.6426</v>
+        <v>102.713</v>
       </c>
       <c r="E68" t="n">
-        <v>99.26600000000001</v>
+        <v>99.5361</v>
       </c>
       <c r="F68" t="n">
-        <v>105.6916</v>
+        <v>105.7586</v>
       </c>
       <c r="G68" t="n">
-        <v>102.5908</v>
+        <v>102.2184</v>
       </c>
       <c r="H68" t="n">
-        <v>100.5717</v>
+        <v>100.4747</v>
       </c>
       <c r="I68" t="n">
-        <v>97.92749999999999</v>
+        <v>97.968</v>
       </c>
       <c r="J68" t="n">
-        <v>105.3649</v>
+        <v>104.1011</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>98.5626</v>
+        <v>98.73009999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>99.3475</v>
+        <v>99.59990000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>102.6672</v>
+        <v>102.752</v>
       </c>
       <c r="E69" t="n">
-        <v>99.3506</v>
+        <v>99.6144</v>
       </c>
       <c r="F69" t="n">
-        <v>105.7168</v>
+        <v>105.6926</v>
       </c>
       <c r="G69" t="n">
-        <v>102.4242</v>
+        <v>102.0982</v>
       </c>
       <c r="H69" t="n">
-        <v>100.5347</v>
+        <v>100.452</v>
       </c>
       <c r="I69" t="n">
-        <v>97.9055</v>
+        <v>98.0181</v>
       </c>
       <c r="J69" t="n">
-        <v>104.8498</v>
+        <v>103.6943</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98.58459999999999</v>
+        <v>98.8052</v>
       </c>
       <c r="C70" t="n">
-        <v>99.40309999999999</v>
+        <v>99.6973</v>
       </c>
       <c r="D70" t="n">
-        <v>102.6777</v>
+        <v>102.5917</v>
       </c>
       <c r="E70" t="n">
-        <v>99.4541</v>
+        <v>99.68519999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>105.7389</v>
+        <v>105.6411</v>
       </c>
       <c r="G70" t="n">
-        <v>102.2872</v>
+        <v>101.9611</v>
       </c>
       <c r="H70" t="n">
-        <v>100.4966</v>
+        <v>100.4382</v>
       </c>
       <c r="I70" t="n">
-        <v>97.9335</v>
+        <v>98.0861</v>
       </c>
       <c r="J70" t="n">
-        <v>104.3948</v>
+        <v>103.3139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>98.6476</v>
+        <v>98.88339999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>99.5153</v>
+        <v>99.78400000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>102.713</v>
+        <v>102.4587</v>
       </c>
       <c r="E71" t="n">
-        <v>99.5361</v>
+        <v>99.7568</v>
       </c>
       <c r="F71" t="n">
-        <v>105.7586</v>
+        <v>105.5577</v>
       </c>
       <c r="G71" t="n">
-        <v>102.2184</v>
+        <v>101.886</v>
       </c>
       <c r="H71" t="n">
-        <v>100.4747</v>
+        <v>100.4296</v>
       </c>
       <c r="I71" t="n">
-        <v>97.968</v>
+        <v>98.1661</v>
       </c>
       <c r="J71" t="n">
-        <v>104.1011</v>
+        <v>103.111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>98.73009999999999</v>
+        <v>98.9529</v>
       </c>
       <c r="C72" t="n">
-        <v>99.59990000000001</v>
+        <v>99.84990000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>102.752</v>
+        <v>102.3376</v>
       </c>
       <c r="E72" t="n">
-        <v>99.6144</v>
+        <v>99.8275</v>
       </c>
       <c r="F72" t="n">
-        <v>105.6926</v>
+        <v>105.4798</v>
       </c>
       <c r="G72" t="n">
-        <v>102.0982</v>
+        <v>101.833</v>
       </c>
       <c r="H72" t="n">
-        <v>100.452</v>
+        <v>100.4206</v>
       </c>
       <c r="I72" t="n">
-        <v>98.0181</v>
+        <v>98.2389</v>
       </c>
       <c r="J72" t="n">
-        <v>103.6943</v>
+        <v>102.9717</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>98.8052</v>
+        <v>99.0111</v>
       </c>
       <c r="C73" t="n">
-        <v>99.6973</v>
+        <v>99.9198</v>
       </c>
       <c r="D73" t="n">
-        <v>102.5917</v>
+        <v>102.2152</v>
       </c>
       <c r="E73" t="n">
-        <v>99.68519999999999</v>
+        <v>99.8929</v>
       </c>
       <c r="F73" t="n">
-        <v>105.6411</v>
+        <v>105.437</v>
       </c>
       <c r="G73" t="n">
-        <v>101.9611</v>
+        <v>101.81</v>
       </c>
       <c r="H73" t="n">
-        <v>100.4382</v>
+        <v>100.4152</v>
       </c>
       <c r="I73" t="n">
-        <v>98.0861</v>
+        <v>98.3133</v>
       </c>
       <c r="J73" t="n">
-        <v>103.3139</v>
+        <v>102.9101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>99.82087426</v>
+        <v>99.54612749</v>
       </c>
       <c r="C74" t="n">
-        <v>101.0740689</v>
+        <v>100.32226378</v>
       </c>
       <c r="D74" t="n">
-        <v>99.73171021</v>
+        <v>100.91233721</v>
       </c>
       <c r="E74" t="n">
-        <v>101.09297057</v>
+        <v>100.57184698</v>
       </c>
       <c r="F74" t="n">
-        <v>104.68742323</v>
+        <v>105.16020811</v>
       </c>
       <c r="G74" t="n">
-        <v>101.2909951</v>
+        <v>101.88715608</v>
       </c>
       <c r="H74" t="n">
-        <v>100.45942096</v>
+        <v>100.2296221</v>
       </c>
       <c r="I74" t="n">
-        <v>99.29102247</v>
+        <v>98.40081881</v>
       </c>
       <c r="J74" t="n">
-        <v>101.82327504</v>
+        <v>103.64803613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>99.86302852999999</v>
+        <v>99.26507216</v>
       </c>
       <c r="C75" t="n">
-        <v>101.09588793</v>
+        <v>100.39877584</v>
       </c>
       <c r="D75" t="n">
-        <v>99.62135757999999</v>
+        <v>100.21559167</v>
       </c>
       <c r="E75" t="n">
-        <v>101.15669748</v>
+        <v>100.61049324</v>
       </c>
       <c r="F75" t="n">
-        <v>104.64328865</v>
+        <v>105.18178364</v>
       </c>
       <c r="G75" t="n">
-        <v>101.34488213</v>
+        <v>101.37029175</v>
       </c>
       <c r="H75" t="n">
-        <v>100.50860558</v>
+        <v>100.21526335</v>
       </c>
       <c r="I75" t="n">
-        <v>99.36652801</v>
+        <v>98.49571254</v>
       </c>
       <c r="J75" t="n">
-        <v>101.99004744</v>
+        <v>102.39016888</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.90508171</v>
+        <v>99.26258398</v>
       </c>
       <c r="C76" t="n">
-        <v>101.10326584</v>
+        <v>100.48986351</v>
       </c>
       <c r="D76" t="n">
-        <v>99.52205616000001</v>
+        <v>100.06376482</v>
       </c>
       <c r="E76" t="n">
-        <v>101.22026363</v>
+        <v>100.62307129</v>
       </c>
       <c r="F76" t="n">
-        <v>104.64087924</v>
+        <v>104.97136294</v>
       </c>
       <c r="G76" t="n">
-        <v>101.46776916</v>
+        <v>101.18152991</v>
       </c>
       <c r="H76" t="n">
-        <v>100.58913734</v>
+        <v>100.21279084</v>
       </c>
       <c r="I76" t="n">
-        <v>99.43146278</v>
+        <v>98.74192003</v>
       </c>
       <c r="J76" t="n">
-        <v>102.34681773</v>
+        <v>101.86933453</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.54612749</v>
+        <v>99.30893695</v>
       </c>
       <c r="C77" t="n">
-        <v>100.32226378</v>
+        <v>100.60579868</v>
       </c>
       <c r="D77" t="n">
-        <v>100.91233721</v>
+        <v>100.03189941</v>
       </c>
       <c r="E77" t="n">
-        <v>100.57184698</v>
+        <v>100.63866002</v>
       </c>
       <c r="F77" t="n">
-        <v>105.16020811</v>
+        <v>104.79347534</v>
       </c>
       <c r="G77" t="n">
-        <v>101.88715608</v>
+        <v>101.18876737</v>
       </c>
       <c r="H77" t="n">
-        <v>100.2296221</v>
+        <v>100.25412616</v>
       </c>
       <c r="I77" t="n">
-        <v>98.40081881</v>
+        <v>98.92893341</v>
       </c>
       <c r="J77" t="n">
-        <v>103.64803613</v>
+        <v>101.86252708</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>99.26507216</v>
+        <v>99.40734337000001</v>
       </c>
       <c r="C78" t="n">
-        <v>100.39877584</v>
+        <v>100.75382694</v>
       </c>
       <c r="D78" t="n">
-        <v>100.21559167</v>
+        <v>100.01470015</v>
       </c>
       <c r="E78" t="n">
-        <v>100.61049324</v>
+        <v>100.67712223</v>
       </c>
       <c r="F78" t="n">
-        <v>105.18178364</v>
+        <v>104.74005973</v>
       </c>
       <c r="G78" t="n">
-        <v>101.37029175</v>
+        <v>101.22613637</v>
       </c>
       <c r="H78" t="n">
-        <v>100.21526335</v>
+        <v>100.29028344</v>
       </c>
       <c r="I78" t="n">
-        <v>98.49571254</v>
+        <v>99.05814485000001</v>
       </c>
       <c r="J78" t="n">
-        <v>102.39016888</v>
+        <v>101.87949255</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.26258398</v>
+        <v>99.57249428999999</v>
       </c>
       <c r="C79" t="n">
-        <v>100.48986351</v>
+        <v>100.8719977</v>
       </c>
       <c r="D79" t="n">
-        <v>100.06376482</v>
+        <v>100.01613616</v>
       </c>
       <c r="E79" t="n">
-        <v>100.62307129</v>
+        <v>100.76811207</v>
       </c>
       <c r="F79" t="n">
-        <v>104.97136294</v>
+        <v>104.66435058</v>
       </c>
       <c r="G79" t="n">
-        <v>101.18152991</v>
+        <v>101.27317604</v>
       </c>
       <c r="H79" t="n">
-        <v>100.21279084</v>
+        <v>100.31745288</v>
       </c>
       <c r="I79" t="n">
-        <v>98.74192003</v>
+        <v>99.12500439999999</v>
       </c>
       <c r="J79" t="n">
-        <v>101.86933453</v>
+        <v>101.92358299</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.30893695</v>
+        <v>99.68110996</v>
       </c>
       <c r="C80" t="n">
-        <v>100.60579868</v>
+        <v>100.95084347</v>
       </c>
       <c r="D80" t="n">
-        <v>100.03189941</v>
+        <v>100.02084081</v>
       </c>
       <c r="E80" t="n">
-        <v>100.63866002</v>
+        <v>100.86277773</v>
       </c>
       <c r="F80" t="n">
-        <v>104.79347534</v>
+        <v>104.63527719</v>
       </c>
       <c r="G80" t="n">
-        <v>101.18876737</v>
+        <v>101.2390491</v>
       </c>
       <c r="H80" t="n">
-        <v>100.25412616</v>
+        <v>100.33706953</v>
       </c>
       <c r="I80" t="n">
-        <v>98.92893341</v>
+        <v>99.16977485</v>
       </c>
       <c r="J80" t="n">
-        <v>101.86252708</v>
+        <v>101.74025195</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.40734337000001</v>
+        <v>99.73756157</v>
       </c>
       <c r="C81" t="n">
-        <v>100.75382694</v>
+        <v>101.02273902</v>
       </c>
       <c r="D81" t="n">
-        <v>100.01470015</v>
+        <v>100.00499315</v>
       </c>
       <c r="E81" t="n">
-        <v>100.67712223</v>
+        <v>100.94668816</v>
       </c>
       <c r="F81" t="n">
-        <v>104.74005973</v>
+        <v>104.65381281</v>
       </c>
       <c r="G81" t="n">
-        <v>101.22613637</v>
+        <v>101.24903074</v>
       </c>
       <c r="H81" t="n">
-        <v>100.29028344</v>
+        <v>100.37409411</v>
       </c>
       <c r="I81" t="n">
-        <v>99.05814485000001</v>
+        <v>99.20503997</v>
       </c>
       <c r="J81" t="n">
-        <v>101.87949255</v>
+        <v>101.69916599</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.57249428999999</v>
+        <v>99.78528446999999</v>
       </c>
       <c r="C82" t="n">
-        <v>100.8719977</v>
+        <v>101.05395772</v>
       </c>
       <c r="D82" t="n">
-        <v>100.01613616</v>
+        <v>99.85214975</v>
       </c>
       <c r="E82" t="n">
-        <v>100.76811207</v>
+        <v>101.02548958</v>
       </c>
       <c r="F82" t="n">
-        <v>104.66435058</v>
+        <v>104.69683759</v>
       </c>
       <c r="G82" t="n">
-        <v>101.27317604</v>
+        <v>101.27793548</v>
       </c>
       <c r="H82" t="n">
-        <v>100.31745288</v>
+        <v>100.41711239</v>
       </c>
       <c r="I82" t="n">
-        <v>99.12500439999999</v>
+        <v>99.23850548</v>
       </c>
       <c r="J82" t="n">
-        <v>101.92358299</v>
+        <v>101.77938469</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.68110996</v>
+        <v>99.82087426</v>
       </c>
       <c r="C83" t="n">
-        <v>100.95084347</v>
+        <v>101.0740689</v>
       </c>
       <c r="D83" t="n">
-        <v>100.02084081</v>
+        <v>99.73171021</v>
       </c>
       <c r="E83" t="n">
-        <v>100.86277773</v>
+        <v>101.09297057</v>
       </c>
       <c r="F83" t="n">
-        <v>104.63527719</v>
+        <v>104.68742323</v>
       </c>
       <c r="G83" t="n">
-        <v>101.2390491</v>
+        <v>101.2909951</v>
       </c>
       <c r="H83" t="n">
-        <v>100.33706953</v>
+        <v>100.45942096</v>
       </c>
       <c r="I83" t="n">
-        <v>99.16977485</v>
+        <v>99.29102247</v>
       </c>
       <c r="J83" t="n">
-        <v>101.74025195</v>
+        <v>101.82327504</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.73756157</v>
+        <v>99.86302852999999</v>
       </c>
       <c r="C84" t="n">
-        <v>101.02273902</v>
+        <v>101.09588793</v>
       </c>
       <c r="D84" t="n">
-        <v>100.00499315</v>
+        <v>99.62135757999999</v>
       </c>
       <c r="E84" t="n">
-        <v>100.94668816</v>
+        <v>101.15669748</v>
       </c>
       <c r="F84" t="n">
-        <v>104.65381281</v>
+        <v>104.64328865</v>
       </c>
       <c r="G84" t="n">
-        <v>101.24903074</v>
+        <v>101.34488213</v>
       </c>
       <c r="H84" t="n">
-        <v>100.37409411</v>
+        <v>100.50860558</v>
       </c>
       <c r="I84" t="n">
-        <v>99.20503997</v>
+        <v>99.36652801</v>
       </c>
       <c r="J84" t="n">
-        <v>101.69916599</v>
+        <v>101.99004744</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>99.78528446999999</v>
+        <v>99.90508171</v>
       </c>
       <c r="C85" t="n">
-        <v>101.05395772</v>
+        <v>101.10326584</v>
       </c>
       <c r="D85" t="n">
-        <v>99.85214975</v>
+        <v>99.52205616000001</v>
       </c>
       <c r="E85" t="n">
-        <v>101.02548958</v>
+        <v>101.22026363</v>
       </c>
       <c r="F85" t="n">
-        <v>104.69683759</v>
+        <v>104.64087924</v>
       </c>
       <c r="G85" t="n">
-        <v>101.27793548</v>
+        <v>101.46776916</v>
       </c>
       <c r="H85" t="n">
-        <v>100.41711239</v>
+        <v>100.58913734</v>
       </c>
       <c r="I85" t="n">
-        <v>99.23850548</v>
+        <v>99.43146278</v>
       </c>
       <c r="J85" t="n">
-        <v>101.77938469</v>
+        <v>102.34681773</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>99.2</v>
+        <v>99.65546098999999</v>
       </c>
       <c r="C86" t="n">
-        <v>101.9</v>
+        <v>101.26366489</v>
       </c>
       <c r="D86" t="n">
-        <v>98.90000000000001</v>
+        <v>97.73109023000001</v>
       </c>
       <c r="E86" t="n">
-        <v>101.9</v>
+        <v>101.98896979</v>
       </c>
       <c r="F86" t="n">
-        <v>104.2</v>
+        <v>103.81230452</v>
       </c>
       <c r="G86" t="n">
-        <v>104.4</v>
+        <v>102.17082051</v>
       </c>
       <c r="H86" t="n">
-        <v>101.7</v>
+        <v>101.53101973</v>
       </c>
       <c r="I86" t="n">
-        <v>99.59999999999999</v>
+        <v>100.45633653</v>
       </c>
       <c r="J86" t="n">
-        <v>111.3</v>
+        <v>105.01988052</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.11466007999999</v>
+        <v>99.64496305999999</v>
       </c>
       <c r="C87" t="n">
-        <v>102.00631542</v>
+        <v>101.3321876</v>
       </c>
       <c r="D87" t="n">
-        <v>98.97625982</v>
+        <v>98.48057264000001</v>
       </c>
       <c r="E87" t="n">
-        <v>101.94206258</v>
+        <v>102.07222658</v>
       </c>
       <c r="F87" t="n">
-        <v>104.34268931</v>
+        <v>103.74411101</v>
       </c>
       <c r="G87" t="n">
-        <v>104.61185829</v>
+        <v>102.43964885</v>
       </c>
       <c r="H87" t="n">
-        <v>101.69938237</v>
+        <v>101.64839048</v>
       </c>
       <c r="I87" t="n">
-        <v>99.53358385999999</v>
+        <v>100.3290772</v>
       </c>
       <c r="J87" t="n">
-        <v>111.92807859</v>
+        <v>105.5255119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.07474864</v>
+        <v>99.78776209</v>
       </c>
       <c r="C88" t="n">
-        <v>102.1050905</v>
+        <v>101.3501186</v>
       </c>
       <c r="D88" t="n">
-        <v>99.01663323</v>
+        <v>98.63917379</v>
       </c>
       <c r="E88" t="n">
-        <v>101.93749205</v>
+        <v>102.09861067</v>
       </c>
       <c r="F88" t="n">
-        <v>104.47378007</v>
+        <v>103.82994224</v>
       </c>
       <c r="G88" t="n">
-        <v>104.77266924</v>
+        <v>102.71741391</v>
       </c>
       <c r="H88" t="n">
-        <v>101.69780253</v>
+        <v>101.68324927</v>
       </c>
       <c r="I88" t="n">
-        <v>99.43090051</v>
+        <v>100.16546219</v>
       </c>
       <c r="J88" t="n">
-        <v>112.34066796</v>
+        <v>106.24996709</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.65546098999999</v>
+        <v>99.78854115999999</v>
       </c>
       <c r="C89" t="n">
-        <v>101.26366489</v>
+        <v>101.38302461</v>
       </c>
       <c r="D89" t="n">
-        <v>97.73109023000001</v>
+        <v>98.67347461999999</v>
       </c>
       <c r="E89" t="n">
-        <v>101.98896979</v>
+        <v>102.11528239</v>
       </c>
       <c r="F89" t="n">
-        <v>103.81230452</v>
+        <v>103.92849715</v>
       </c>
       <c r="G89" t="n">
-        <v>102.17082051</v>
+        <v>102.79601405</v>
       </c>
       <c r="H89" t="n">
-        <v>101.53101973</v>
+        <v>101.67547503</v>
       </c>
       <c r="I89" t="n">
-        <v>100.45633653</v>
+        <v>100.081806</v>
       </c>
       <c r="J89" t="n">
-        <v>105.01988052</v>
+        <v>106.44920897</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.64496305999999</v>
+        <v>99.72328706</v>
       </c>
       <c r="C90" t="n">
-        <v>101.3321876</v>
+        <v>101.42879311</v>
       </c>
       <c r="D90" t="n">
-        <v>98.48057264000001</v>
+        <v>98.70439763</v>
       </c>
       <c r="E90" t="n">
-        <v>102.07222658</v>
+        <v>102.12336723</v>
       </c>
       <c r="F90" t="n">
-        <v>103.74411101</v>
+        <v>103.93768653</v>
       </c>
       <c r="G90" t="n">
-        <v>102.43964885</v>
+        <v>102.91360268</v>
       </c>
       <c r="H90" t="n">
-        <v>101.64839048</v>
+        <v>101.67720682</v>
       </c>
       <c r="I90" t="n">
-        <v>100.3290772</v>
+        <v>100.03606003</v>
       </c>
       <c r="J90" t="n">
-        <v>105.5255119</v>
+        <v>106.81249078</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.78776209</v>
+        <v>99.58132417</v>
       </c>
       <c r="C91" t="n">
-        <v>101.3501186</v>
+        <v>101.50768435</v>
       </c>
       <c r="D91" t="n">
-        <v>98.63917379</v>
+        <v>98.72508605</v>
       </c>
       <c r="E91" t="n">
-        <v>102.09861067</v>
+        <v>102.07000199</v>
       </c>
       <c r="F91" t="n">
-        <v>103.82994224</v>
+        <v>104.0149554</v>
       </c>
       <c r="G91" t="n">
-        <v>102.71741391</v>
+        <v>103.15371592</v>
       </c>
       <c r="H91" t="n">
-        <v>101.68324927</v>
+        <v>101.68141304</v>
       </c>
       <c r="I91" t="n">
-        <v>100.16546219</v>
+        <v>99.98832825</v>
       </c>
       <c r="J91" t="n">
-        <v>106.24996709</v>
+        <v>107.55224953</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.78854115999999</v>
+        <v>99.4537438</v>
       </c>
       <c r="C92" t="n">
-        <v>101.38302461</v>
+        <v>101.60079021</v>
       </c>
       <c r="D92" t="n">
-        <v>98.67347461999999</v>
+        <v>98.73752004000001</v>
       </c>
       <c r="E92" t="n">
-        <v>102.11528239</v>
+        <v>102.01139218</v>
       </c>
       <c r="F92" t="n">
-        <v>103.92849715</v>
+        <v>104.0672893</v>
       </c>
       <c r="G92" t="n">
-        <v>102.79601405</v>
+        <v>103.50338049</v>
       </c>
       <c r="H92" t="n">
-        <v>101.67547503</v>
+        <v>101.691252</v>
       </c>
       <c r="I92" t="n">
-        <v>100.081806</v>
+        <v>99.90942096000001</v>
       </c>
       <c r="J92" t="n">
-        <v>106.44920897</v>
+        <v>108.6474682</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.72328706</v>
+        <v>99.35558496</v>
       </c>
       <c r="C93" t="n">
-        <v>101.42879311</v>
+        <v>101.68830736</v>
       </c>
       <c r="D93" t="n">
-        <v>98.70439763</v>
+        <v>98.7565376</v>
       </c>
       <c r="E93" t="n">
-        <v>102.12336723</v>
+        <v>101.97782052</v>
       </c>
       <c r="F93" t="n">
-        <v>103.93768653</v>
+        <v>104.09293692</v>
       </c>
       <c r="G93" t="n">
-        <v>102.91360268</v>
+        <v>103.87883851</v>
       </c>
       <c r="H93" t="n">
-        <v>101.67720682</v>
+        <v>101.6956368</v>
       </c>
       <c r="I93" t="n">
-        <v>100.03606003</v>
+        <v>99.81342603</v>
       </c>
       <c r="J93" t="n">
-        <v>106.81249078</v>
+        <v>109.82059454</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>99.58132417</v>
+        <v>99.26713409</v>
       </c>
       <c r="C94" t="n">
-        <v>101.50768435</v>
+        <v>101.79258929</v>
       </c>
       <c r="D94" t="n">
-        <v>98.72508605</v>
+        <v>98.85260473</v>
       </c>
       <c r="E94" t="n">
-        <v>102.07000199</v>
+        <v>101.96120904</v>
       </c>
       <c r="F94" t="n">
-        <v>104.0149554</v>
+        <v>104.10589094</v>
       </c>
       <c r="G94" t="n">
-        <v>103.15371592</v>
+        <v>104.14187939</v>
       </c>
       <c r="H94" t="n">
-        <v>101.68141304</v>
+        <v>101.69482316</v>
       </c>
       <c r="I94" t="n">
-        <v>99.98832825</v>
+        <v>99.72679438999999</v>
       </c>
       <c r="J94" t="n">
-        <v>107.55224953</v>
+        <v>110.60160858</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>99.4537438</v>
+        <v>99.2</v>
       </c>
       <c r="C95" t="n">
-        <v>101.60079021</v>
+        <v>101.9</v>
       </c>
       <c r="D95" t="n">
-        <v>98.73752004000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>102.01139218</v>
+        <v>101.9</v>
       </c>
       <c r="F95" t="n">
-        <v>104.0672893</v>
+        <v>104.2</v>
       </c>
       <c r="G95" t="n">
-        <v>103.50338049</v>
+        <v>104.4</v>
       </c>
       <c r="H95" t="n">
-        <v>101.691252</v>
+        <v>101.7</v>
       </c>
       <c r="I95" t="n">
-        <v>99.90942096000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>108.6474682</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>99.35558496</v>
+        <v>99.11466007999999</v>
       </c>
       <c r="C96" t="n">
-        <v>101.68830736</v>
+        <v>102.00631542</v>
       </c>
       <c r="D96" t="n">
-        <v>98.7565376</v>
+        <v>98.97625982</v>
       </c>
       <c r="E96" t="n">
-        <v>101.97782052</v>
+        <v>101.94206258</v>
       </c>
       <c r="F96" t="n">
-        <v>104.09293692</v>
+        <v>104.34268931</v>
       </c>
       <c r="G96" t="n">
-        <v>103.87883851</v>
+        <v>104.61185829</v>
       </c>
       <c r="H96" t="n">
-        <v>101.6956368</v>
+        <v>101.69938237</v>
       </c>
       <c r="I96" t="n">
-        <v>99.81342603</v>
+        <v>99.53358385999999</v>
       </c>
       <c r="J96" t="n">
-        <v>109.82059454</v>
+        <v>111.92807859</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>99.26713409</v>
+        <v>99.07474864</v>
       </c>
       <c r="C97" t="n">
-        <v>101.79258929</v>
+        <v>102.1050905</v>
       </c>
       <c r="D97" t="n">
-        <v>98.85260473</v>
+        <v>99.01663323</v>
       </c>
       <c r="E97" t="n">
-        <v>101.96120904</v>
+        <v>101.93749205</v>
       </c>
       <c r="F97" t="n">
-        <v>104.10589094</v>
+        <v>104.47378007</v>
       </c>
       <c r="G97" t="n">
-        <v>104.14187939</v>
+        <v>104.77266924</v>
       </c>
       <c r="H97" t="n">
-        <v>101.69482316</v>
+        <v>101.69780253</v>
       </c>
       <c r="I97" t="n">
-        <v>99.72679438999999</v>
+        <v>99.43090051</v>
       </c>
       <c r="J97" t="n">
-        <v>110.60160858</v>
+        <v>112.34066796</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>99.09603595999999</v>
+        <v>98.90300145</v>
       </c>
       <c r="C98" t="n">
-        <v>103.12311953</v>
+        <v>103.17309724</v>
       </c>
       <c r="D98" t="n">
-        <v>99.28271651999999</v>
+        <v>99.65321335</v>
       </c>
       <c r="E98" t="n">
-        <v>102.7971323</v>
+        <v>102.07384761</v>
       </c>
       <c r="F98" t="n">
-        <v>106.728296</v>
+        <v>106.12640915</v>
       </c>
       <c r="G98" t="n">
-        <v>106.70270171</v>
+        <v>107.078064</v>
       </c>
       <c r="H98" t="n">
-        <v>102.86783793</v>
+        <v>102.11203867</v>
       </c>
       <c r="I98" t="n">
-        <v>98.58743680000001</v>
+        <v>98.09328436</v>
       </c>
       <c r="J98" t="n">
-        <v>116.33668698</v>
+        <v>118.17347496</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>99.11682054000001</v>
+        <v>98.77605287999999</v>
       </c>
       <c r="C99" t="n">
-        <v>103.01719084</v>
+        <v>103.19193733</v>
       </c>
       <c r="D99" t="n">
-        <v>99.32494167</v>
+        <v>99.38405147</v>
       </c>
       <c r="E99" t="n">
-        <v>102.82462471</v>
+        <v>102.08609522</v>
       </c>
       <c r="F99" t="n">
-        <v>106.20047754</v>
+        <v>106.35685102</v>
       </c>
       <c r="G99" t="n">
-        <v>106.30423963</v>
+        <v>107.91535208</v>
       </c>
       <c r="H99" t="n">
-        <v>102.90038546</v>
+        <v>102.27100459</v>
       </c>
       <c r="I99" t="n">
-        <v>98.56503871</v>
+        <v>98.36896851</v>
       </c>
       <c r="J99" t="n">
-        <v>115.33496096</v>
+        <v>120.74703234</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>99.07530715999999</v>
+        <v>98.65666969999999</v>
       </c>
       <c r="C100" t="n">
-        <v>102.90397998</v>
+        <v>103.41977281</v>
       </c>
       <c r="D100" t="n">
-        <v>99.33146941</v>
+        <v>99.37078510000001</v>
       </c>
       <c r="E100" t="n">
-        <v>102.82886798</v>
+        <v>102.22517232</v>
       </c>
       <c r="F100" t="n">
-        <v>105.54056414</v>
+        <v>106.57420934</v>
       </c>
       <c r="G100" t="n">
-        <v>105.86457377</v>
+        <v>108.04487744</v>
       </c>
       <c r="H100" t="n">
-        <v>102.89999369</v>
+        <v>102.3047533</v>
       </c>
       <c r="I100" t="n">
-        <v>98.50115723</v>
+        <v>98.42238030999999</v>
       </c>
       <c r="J100" t="n">
-        <v>114.33223229</v>
+        <v>120.9657224</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>98.90300145</v>
+        <v>98.57913743</v>
       </c>
       <c r="C101" t="n">
-        <v>103.17309724</v>
+        <v>103.47121861</v>
       </c>
       <c r="D101" t="n">
-        <v>99.65321335</v>
+        <v>99.36214998</v>
       </c>
       <c r="E101" t="n">
-        <v>102.07384761</v>
+        <v>102.33652806</v>
       </c>
       <c r="F101" t="n">
-        <v>106.12640915</v>
+        <v>106.64101067</v>
       </c>
       <c r="G101" t="n">
-        <v>107.078064</v>
+        <v>108.15441522</v>
       </c>
       <c r="H101" t="n">
-        <v>102.11203867</v>
+        <v>102.38848236</v>
       </c>
       <c r="I101" t="n">
-        <v>98.09328436</v>
+        <v>98.47471761</v>
       </c>
       <c r="J101" t="n">
-        <v>118.17347496</v>
+        <v>121.24969095</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>98.77605287999999</v>
+        <v>98.53864063</v>
       </c>
       <c r="C102" t="n">
-        <v>103.19193733</v>
+        <v>103.43317832</v>
       </c>
       <c r="D102" t="n">
-        <v>99.38405147</v>
+        <v>99.24282540999999</v>
       </c>
       <c r="E102" t="n">
-        <v>102.08609522</v>
+        <v>102.4231105</v>
       </c>
       <c r="F102" t="n">
-        <v>106.35685102</v>
+        <v>106.73604592</v>
       </c>
       <c r="G102" t="n">
-        <v>107.91535208</v>
+        <v>108.06656155</v>
       </c>
       <c r="H102" t="n">
-        <v>102.27100459</v>
+        <v>102.47902507</v>
       </c>
       <c r="I102" t="n">
-        <v>98.36896851</v>
+        <v>98.47892286</v>
       </c>
       <c r="J102" t="n">
-        <v>120.74703234</v>
+        <v>120.97317785</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>98.65666969999999</v>
+        <v>98.59257458</v>
       </c>
       <c r="C103" t="n">
-        <v>103.41977281</v>
+        <v>103.38175908</v>
       </c>
       <c r="D103" t="n">
-        <v>99.37078510000001</v>
+        <v>99.20322655</v>
       </c>
       <c r="E103" t="n">
-        <v>102.22517232</v>
+        <v>102.50426568</v>
       </c>
       <c r="F103" t="n">
-        <v>106.57420934</v>
+        <v>106.89159628</v>
       </c>
       <c r="G103" t="n">
-        <v>108.04487744</v>
+        <v>107.90195391</v>
       </c>
       <c r="H103" t="n">
-        <v>102.3047533</v>
+        <v>102.5766883</v>
       </c>
       <c r="I103" t="n">
-        <v>98.42238030999999</v>
+        <v>98.47732284999999</v>
       </c>
       <c r="J103" t="n">
-        <v>120.9657224</v>
+        <v>120.35092277</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>98.57913743</v>
+        <v>98.75540209</v>
       </c>
       <c r="C104" t="n">
-        <v>103.47121861</v>
+        <v>103.33748078</v>
       </c>
       <c r="D104" t="n">
-        <v>99.36214998</v>
+        <v>99.1831768</v>
       </c>
       <c r="E104" t="n">
-        <v>102.33652806</v>
+        <v>102.59248024</v>
       </c>
       <c r="F104" t="n">
-        <v>106.64101067</v>
+        <v>107.01191371</v>
       </c>
       <c r="G104" t="n">
-        <v>108.15441522</v>
+        <v>107.67055589</v>
       </c>
       <c r="H104" t="n">
-        <v>102.38848236</v>
+        <v>102.65552292</v>
       </c>
       <c r="I104" t="n">
-        <v>98.47471761</v>
+        <v>98.49307146</v>
       </c>
       <c r="J104" t="n">
-        <v>121.24969095</v>
+        <v>119.47592265</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>98.53864063</v>
+        <v>98.88881383</v>
       </c>
       <c r="C105" t="n">
-        <v>103.43317832</v>
+        <v>103.27900121</v>
       </c>
       <c r="D105" t="n">
-        <v>99.24282540999999</v>
+        <v>99.19118928</v>
       </c>
       <c r="E105" t="n">
-        <v>102.4231105</v>
+        <v>102.66992014</v>
       </c>
       <c r="F105" t="n">
-        <v>106.73604592</v>
+        <v>107.02892153</v>
       </c>
       <c r="G105" t="n">
-        <v>108.06656155</v>
+        <v>107.31681883</v>
       </c>
       <c r="H105" t="n">
-        <v>102.47902507</v>
+        <v>102.73114945</v>
       </c>
       <c r="I105" t="n">
-        <v>98.47892286</v>
+        <v>98.5478615</v>
       </c>
       <c r="J105" t="n">
-        <v>120.97317785</v>
+        <v>118.25829923</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.59257458</v>
+        <v>98.99348637999999</v>
       </c>
       <c r="C106" t="n">
-        <v>103.38175908</v>
+        <v>103.20387964</v>
       </c>
       <c r="D106" t="n">
-        <v>99.20322655</v>
+        <v>99.24127273000001</v>
       </c>
       <c r="E106" t="n">
-        <v>102.50426568</v>
+        <v>102.73235313</v>
       </c>
       <c r="F106" t="n">
-        <v>106.89159628</v>
+        <v>106.966685</v>
       </c>
       <c r="G106" t="n">
-        <v>107.90195391</v>
+        <v>107.01328072</v>
       </c>
       <c r="H106" t="n">
-        <v>102.5766883</v>
+        <v>102.80716844</v>
       </c>
       <c r="I106" t="n">
-        <v>98.47732284999999</v>
+        <v>98.57915816000001</v>
       </c>
       <c r="J106" t="n">
-        <v>120.35092277</v>
+        <v>117.25580827</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>98.75540209</v>
+        <v>99.09603595999999</v>
       </c>
       <c r="C107" t="n">
-        <v>103.33748078</v>
+        <v>103.12311953</v>
       </c>
       <c r="D107" t="n">
-        <v>99.1831768</v>
+        <v>99.28271651999999</v>
       </c>
       <c r="E107" t="n">
-        <v>102.59248024</v>
+        <v>102.7971323</v>
       </c>
       <c r="F107" t="n">
-        <v>107.01191371</v>
+        <v>106.728296</v>
       </c>
       <c r="G107" t="n">
-        <v>107.67055589</v>
+        <v>106.70270171</v>
       </c>
       <c r="H107" t="n">
-        <v>102.65552292</v>
+        <v>102.86783793</v>
       </c>
       <c r="I107" t="n">
-        <v>98.49307146</v>
+        <v>98.58743680000001</v>
       </c>
       <c r="J107" t="n">
-        <v>119.47592265</v>
+        <v>116.33668698</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>98.88881383</v>
+        <v>99.11682054000001</v>
       </c>
       <c r="C108" t="n">
-        <v>103.27900121</v>
+        <v>103.01719084</v>
       </c>
       <c r="D108" t="n">
-        <v>99.19118928</v>
+        <v>99.32494167</v>
       </c>
       <c r="E108" t="n">
-        <v>102.66992014</v>
+        <v>102.82462471</v>
       </c>
       <c r="F108" t="n">
-        <v>107.02892153</v>
+        <v>106.20047754</v>
       </c>
       <c r="G108" t="n">
-        <v>107.31681883</v>
+        <v>106.30423963</v>
       </c>
       <c r="H108" t="n">
-        <v>102.73114945</v>
+        <v>102.90038546</v>
       </c>
       <c r="I108" t="n">
-        <v>98.5478615</v>
+        <v>98.56503871</v>
       </c>
       <c r="J108" t="n">
-        <v>118.25829923</v>
+        <v>115.33496096</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>98.99348637999999</v>
+        <v>99.07530715999999</v>
       </c>
       <c r="C109" t="n">
-        <v>103.20387964</v>
+        <v>102.90397998</v>
       </c>
       <c r="D109" t="n">
-        <v>99.24127273000001</v>
+        <v>99.33146941</v>
       </c>
       <c r="E109" t="n">
-        <v>102.73235313</v>
+        <v>102.82886798</v>
       </c>
       <c r="F109" t="n">
-        <v>106.966685</v>
+        <v>105.54056414</v>
       </c>
       <c r="G109" t="n">
-        <v>107.01328072</v>
+        <v>105.86457377</v>
       </c>
       <c r="H109" t="n">
-        <v>102.80716844</v>
+        <v>102.89999369</v>
       </c>
       <c r="I109" t="n">
-        <v>98.57915816000001</v>
+        <v>98.50115723</v>
       </c>
       <c r="J109" t="n">
-        <v>117.25580827</v>
+        <v>114.33223229</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97.42964488</v>
+        <v>97.46494633</v>
       </c>
       <c r="C110" t="n">
-        <v>101.03994811</v>
+        <v>101.59659558</v>
       </c>
       <c r="D110" t="n">
-        <v>99.2982179</v>
+        <v>100.33099154</v>
       </c>
       <c r="E110" t="n">
-        <v>100.43775755</v>
+        <v>102.63122579</v>
       </c>
       <c r="F110" t="n">
-        <v>95.67108448</v>
+        <v>97.72987385</v>
       </c>
       <c r="G110" t="n">
-        <v>98.93087966</v>
+        <v>100.95240543</v>
       </c>
       <c r="H110" t="n">
-        <v>101.54923745</v>
+        <v>102.36611167</v>
       </c>
       <c r="I110" t="n">
-        <v>97.78451491</v>
+        <v>97.33827542</v>
       </c>
       <c r="J110" t="n">
-        <v>100.06782117</v>
+        <v>104.21102019</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97.46549662</v>
+        <v>97.24716479999999</v>
       </c>
       <c r="C111" t="n">
-        <v>101.09474218</v>
+        <v>101.46573959</v>
       </c>
       <c r="D111" t="n">
-        <v>99.30795749000001</v>
+        <v>99.59420243</v>
       </c>
       <c r="E111" t="n">
-        <v>100.29616678</v>
+        <v>102.35773793</v>
       </c>
       <c r="F111" t="n">
-        <v>95.95033504</v>
+        <v>97.41281429</v>
       </c>
       <c r="G111" t="n">
-        <v>99.07726554</v>
+        <v>99.68113753999999</v>
       </c>
       <c r="H111" t="n">
-        <v>101.52543721</v>
+        <v>102.16941232</v>
       </c>
       <c r="I111" t="n">
-        <v>97.87733086999999</v>
+        <v>97.54147030999999</v>
       </c>
       <c r="J111" t="n">
-        <v>100.34112272</v>
+        <v>101.04322742</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>97.55447194</v>
+        <v>97.33689602</v>
       </c>
       <c r="C112" t="n">
-        <v>101.18579725</v>
+        <v>101.30670483</v>
       </c>
       <c r="D112" t="n">
-        <v>99.34289961</v>
+        <v>99.48401081999999</v>
       </c>
       <c r="E112" t="n">
-        <v>100.18233536</v>
+        <v>102.06872477</v>
       </c>
       <c r="F112" t="n">
-        <v>96.39608413000001</v>
+        <v>97.0911783</v>
       </c>
       <c r="G112" t="n">
-        <v>99.30605826999999</v>
+        <v>99.3959603</v>
       </c>
       <c r="H112" t="n">
-        <v>101.51068622</v>
+        <v>102.0451472</v>
       </c>
       <c r="I112" t="n">
-        <v>97.98758846</v>
+        <v>97.57990061</v>
       </c>
       <c r="J112" t="n">
-        <v>100.74766069</v>
+        <v>100.46746248</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>97.46494633</v>
+        <v>97.45144452</v>
       </c>
       <c r="C113" t="n">
-        <v>101.59659558</v>
+        <v>101.20686334</v>
       </c>
       <c r="D113" t="n">
-        <v>100.33099154</v>
+        <v>99.37180026</v>
       </c>
       <c r="E113" t="n">
-        <v>102.63122579</v>
+        <v>101.77477478</v>
       </c>
       <c r="F113" t="n">
-        <v>97.72987385</v>
+        <v>96.80792694</v>
       </c>
       <c r="G113" t="n">
-        <v>100.95240543</v>
+        <v>99.17050593</v>
       </c>
       <c r="H113" t="n">
-        <v>102.36611167</v>
+        <v>101.93944243</v>
       </c>
       <c r="I113" t="n">
-        <v>97.33827542</v>
+        <v>97.60918003</v>
       </c>
       <c r="J113" t="n">
-        <v>104.21102019</v>
+        <v>100.01405905</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>97.24716479999999</v>
+        <v>97.50599285</v>
       </c>
       <c r="C114" t="n">
-        <v>101.46573959</v>
+        <v>101.13764189</v>
       </c>
       <c r="D114" t="n">
-        <v>99.59420243</v>
+        <v>99.34664677000001</v>
       </c>
       <c r="E114" t="n">
-        <v>102.35773793</v>
+        <v>101.51922238</v>
       </c>
       <c r="F114" t="n">
-        <v>97.41281429</v>
+        <v>96.49005243000001</v>
       </c>
       <c r="G114" t="n">
-        <v>99.68113753999999</v>
+        <v>99.06220512</v>
       </c>
       <c r="H114" t="n">
-        <v>102.16941232</v>
+        <v>101.83129845</v>
       </c>
       <c r="I114" t="n">
-        <v>97.54147030999999</v>
+        <v>97.63550327</v>
       </c>
       <c r="J114" t="n">
-        <v>101.04322742</v>
+        <v>99.88229318</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>97.33689602</v>
+        <v>97.5267202</v>
       </c>
       <c r="C115" t="n">
-        <v>101.30670483</v>
+        <v>101.09721761</v>
       </c>
       <c r="D115" t="n">
-        <v>99.48401081999999</v>
+        <v>99.339932</v>
       </c>
       <c r="E115" t="n">
-        <v>102.06872477</v>
+        <v>101.28519403</v>
       </c>
       <c r="F115" t="n">
-        <v>97.0911783</v>
+        <v>96.12452682999999</v>
       </c>
       <c r="G115" t="n">
-        <v>99.3959603</v>
+        <v>98.93958533</v>
       </c>
       <c r="H115" t="n">
-        <v>102.0451472</v>
+        <v>101.73268946</v>
       </c>
       <c r="I115" t="n">
-        <v>97.57990061</v>
+        <v>97.64354564999999</v>
       </c>
       <c r="J115" t="n">
-        <v>100.46746248</v>
+        <v>99.72127209</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>97.45144452</v>
+        <v>97.49987229</v>
       </c>
       <c r="C116" t="n">
-        <v>101.20686334</v>
+        <v>101.03775085</v>
       </c>
       <c r="D116" t="n">
-        <v>99.37180026</v>
+        <v>99.33645731999999</v>
       </c>
       <c r="E116" t="n">
-        <v>101.77477478</v>
+        <v>101.04514628</v>
       </c>
       <c r="F116" t="n">
-        <v>96.80792694</v>
+        <v>95.8453286</v>
       </c>
       <c r="G116" t="n">
-        <v>99.17050593</v>
+        <v>98.83316248</v>
       </c>
       <c r="H116" t="n">
-        <v>101.93944243</v>
+        <v>101.66117538</v>
       </c>
       <c r="I116" t="n">
-        <v>97.60918003</v>
+        <v>97.64229801</v>
       </c>
       <c r="J116" t="n">
-        <v>100.01405905</v>
+        <v>99.59393835</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>97.50599285</v>
+        <v>97.45370133999999</v>
       </c>
       <c r="C117" t="n">
-        <v>101.13764189</v>
+        <v>101.01659217</v>
       </c>
       <c r="D117" t="n">
-        <v>99.34664677000001</v>
+        <v>99.31171629000001</v>
       </c>
       <c r="E117" t="n">
-        <v>101.51922238</v>
+        <v>100.82352296</v>
       </c>
       <c r="F117" t="n">
-        <v>96.49005243000001</v>
+        <v>95.69289956</v>
       </c>
       <c r="G117" t="n">
-        <v>99.06220512</v>
+        <v>98.82848669000001</v>
       </c>
       <c r="H117" t="n">
-        <v>101.83129845</v>
+        <v>101.61504417</v>
       </c>
       <c r="I117" t="n">
-        <v>97.63550327</v>
+        <v>97.66292414</v>
       </c>
       <c r="J117" t="n">
-        <v>99.88229318</v>
+        <v>99.70987857999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>97.5267202</v>
+        <v>97.44246953</v>
       </c>
       <c r="C118" t="n">
-        <v>101.09721761</v>
+        <v>101.02259569</v>
       </c>
       <c r="D118" t="n">
-        <v>99.339932</v>
+        <v>99.30148561999999</v>
       </c>
       <c r="E118" t="n">
-        <v>101.28519403</v>
+        <v>100.62727643</v>
       </c>
       <c r="F118" t="n">
-        <v>96.12452682999999</v>
+        <v>95.6134959</v>
       </c>
       <c r="G118" t="n">
-        <v>98.93958533</v>
+        <v>98.87101527</v>
       </c>
       <c r="H118" t="n">
-        <v>101.73268946</v>
+        <v>101.58085184</v>
       </c>
       <c r="I118" t="n">
-        <v>97.64354564999999</v>
+        <v>97.72066555000001</v>
       </c>
       <c r="J118" t="n">
-        <v>99.72127209</v>
+        <v>99.90333128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97.49987229</v>
+        <v>97.42964488</v>
       </c>
       <c r="C119" t="n">
-        <v>101.03775085</v>
+        <v>101.03994811</v>
       </c>
       <c r="D119" t="n">
-        <v>99.33645731999999</v>
+        <v>99.2982179</v>
       </c>
       <c r="E119" t="n">
-        <v>101.04514628</v>
+        <v>100.43775755</v>
       </c>
       <c r="F119" t="n">
-        <v>95.8453286</v>
+        <v>95.67108448</v>
       </c>
       <c r="G119" t="n">
-        <v>98.83316248</v>
+        <v>98.93087966</v>
       </c>
       <c r="H119" t="n">
-        <v>101.66117538</v>
+        <v>101.54923745</v>
       </c>
       <c r="I119" t="n">
-        <v>97.64229801</v>
+        <v>97.78451491</v>
       </c>
       <c r="J119" t="n">
-        <v>99.59393835</v>
+        <v>100.06782117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>97.45370133999999</v>
+        <v>97.46549662</v>
       </c>
       <c r="C120" t="n">
-        <v>101.01659217</v>
+        <v>101.09474218</v>
       </c>
       <c r="D120" t="n">
-        <v>99.31171629000001</v>
+        <v>99.30795749000001</v>
       </c>
       <c r="E120" t="n">
-        <v>100.82352296</v>
+        <v>100.29616678</v>
       </c>
       <c r="F120" t="n">
-        <v>95.69289956</v>
+        <v>95.95033504</v>
       </c>
       <c r="G120" t="n">
-        <v>98.82848669000001</v>
+        <v>99.07726554</v>
       </c>
       <c r="H120" t="n">
-        <v>101.61504417</v>
+        <v>101.52543721</v>
       </c>
       <c r="I120" t="n">
-        <v>97.66292414</v>
+        <v>97.87733086999999</v>
       </c>
       <c r="J120" t="n">
-        <v>99.70987857999999</v>
+        <v>100.34112272</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>97.44246953</v>
+        <v>97.55447194</v>
       </c>
       <c r="C121" t="n">
-        <v>101.02259569</v>
+        <v>101.18579725</v>
       </c>
       <c r="D121" t="n">
-        <v>99.30148561999999</v>
+        <v>99.34289961</v>
       </c>
       <c r="E121" t="n">
-        <v>100.62727643</v>
+        <v>100.18233536</v>
       </c>
       <c r="F121" t="n">
-        <v>95.6134959</v>
+        <v>96.39608413000001</v>
       </c>
       <c r="G121" t="n">
-        <v>98.87101527</v>
+        <v>99.30605826999999</v>
       </c>
       <c r="H121" t="n">
-        <v>101.58085184</v>
+        <v>101.51068622</v>
       </c>
       <c r="I121" t="n">
-        <v>97.72066555000001</v>
+        <v>97.98758846</v>
       </c>
       <c r="J121" t="n">
-        <v>99.90333128</v>
+        <v>100.74766069</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99.71045418</v>
+        <v>99.48061373</v>
       </c>
       <c r="C122" t="n">
-        <v>103.01772111</v>
+        <v>102.3393444</v>
       </c>
       <c r="D122" t="n">
-        <v>100.61395631</v>
+        <v>98.76195082</v>
       </c>
       <c r="E122" t="n">
-        <v>99.79450257000001</v>
+        <v>98.90513205000001</v>
       </c>
       <c r="F122" t="n">
-        <v>104.16490532</v>
+        <v>102.5176755</v>
       </c>
       <c r="G122" t="n">
-        <v>103.01335145</v>
+        <v>101.53040923</v>
       </c>
       <c r="H122" t="n">
-        <v>101.59686653</v>
+        <v>101.52708434</v>
       </c>
       <c r="I122" t="n">
-        <v>98.88532044</v>
+        <v>99.59925891</v>
       </c>
       <c r="J122" t="n">
-        <v>106.52474465</v>
+        <v>103.71958616</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.67661305</v>
+        <v>99.81213547</v>
       </c>
       <c r="C123" t="n">
-        <v>103.11152947</v>
+        <v>102.39171091</v>
       </c>
       <c r="D123" t="n">
-        <v>100.61559472</v>
+        <v>99.76755503</v>
       </c>
       <c r="E123" t="n">
-        <v>99.88031241</v>
+        <v>99.06561128</v>
       </c>
       <c r="F123" t="n">
-        <v>104.32025996</v>
+        <v>102.75445066</v>
       </c>
       <c r="G123" t="n">
-        <v>103.20560194</v>
+        <v>102.1129449</v>
       </c>
       <c r="H123" t="n">
-        <v>101.59859925</v>
+        <v>101.55700867</v>
       </c>
       <c r="I123" t="n">
-        <v>98.92720382</v>
+        <v>99.1303637</v>
       </c>
       <c r="J123" t="n">
-        <v>106.99459573</v>
+        <v>104.98313368</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.64885652</v>
+        <v>99.88165511</v>
       </c>
       <c r="C124" t="n">
-        <v>103.1835963</v>
+        <v>102.43588126</v>
       </c>
       <c r="D124" t="n">
-        <v>100.62341161</v>
+        <v>99.93119351</v>
       </c>
       <c r="E124" t="n">
-        <v>99.98624823999999</v>
+        <v>99.13173506</v>
       </c>
       <c r="F124" t="n">
-        <v>104.46509876</v>
+        <v>102.93110011</v>
       </c>
       <c r="G124" t="n">
-        <v>103.32217393</v>
+        <v>102.19865789</v>
       </c>
       <c r="H124" t="n">
-        <v>101.61546107</v>
+        <v>101.60561375</v>
       </c>
       <c r="I124" t="n">
-        <v>99.02176301</v>
+        <v>99.05275156</v>
       </c>
       <c r="J124" t="n">
-        <v>107.21327564</v>
+        <v>105.06895051</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.48061373</v>
+        <v>99.90621501</v>
       </c>
       <c r="C125" t="n">
-        <v>102.3393444</v>
+        <v>102.52255645</v>
       </c>
       <c r="D125" t="n">
-        <v>98.76195082</v>
+        <v>100.05571516</v>
       </c>
       <c r="E125" t="n">
-        <v>98.90513205000001</v>
+        <v>99.22299511999999</v>
       </c>
       <c r="F125" t="n">
-        <v>102.5176755</v>
+        <v>103.31509599</v>
       </c>
       <c r="G125" t="n">
-        <v>101.53040923</v>
+        <v>102.35187342</v>
       </c>
       <c r="H125" t="n">
-        <v>101.52708434</v>
+        <v>101.62417881</v>
       </c>
       <c r="I125" t="n">
-        <v>99.59925891</v>
+        <v>98.97381812</v>
       </c>
       <c r="J125" t="n">
-        <v>103.71958616</v>
+        <v>105.28708901</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>99.81213547</v>
+        <v>99.95263102</v>
       </c>
       <c r="C126" t="n">
-        <v>102.39171091</v>
+        <v>102.6515937</v>
       </c>
       <c r="D126" t="n">
-        <v>99.76755503</v>
+        <v>100.16913675</v>
       </c>
       <c r="E126" t="n">
-        <v>99.06561128</v>
+        <v>99.31118562</v>
       </c>
       <c r="F126" t="n">
-        <v>102.75445066</v>
+        <v>103.65340417</v>
       </c>
       <c r="G126" t="n">
-        <v>102.1129449</v>
+        <v>102.48708143</v>
       </c>
       <c r="H126" t="n">
-        <v>101.55700867</v>
+        <v>101.6466299</v>
       </c>
       <c r="I126" t="n">
-        <v>99.1303637</v>
+        <v>98.94183237999999</v>
       </c>
       <c r="J126" t="n">
-        <v>104.98313368</v>
+        <v>105.44160138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.88165511</v>
+        <v>99.91722248000001</v>
       </c>
       <c r="C127" t="n">
-        <v>102.43588126</v>
+        <v>102.7493987</v>
       </c>
       <c r="D127" t="n">
-        <v>99.93119351</v>
+        <v>100.2950014</v>
       </c>
       <c r="E127" t="n">
-        <v>99.13173506</v>
+        <v>99.41973036</v>
       </c>
       <c r="F127" t="n">
-        <v>102.93110011</v>
+        <v>103.87869826</v>
       </c>
       <c r="G127" t="n">
-        <v>102.19865789</v>
+        <v>102.56359059</v>
       </c>
       <c r="H127" t="n">
-        <v>101.60561375</v>
+        <v>101.66348387</v>
       </c>
       <c r="I127" t="n">
-        <v>99.05275156</v>
+        <v>98.9449405</v>
       </c>
       <c r="J127" t="n">
-        <v>105.06895051</v>
+        <v>105.48444493</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.90621501</v>
+        <v>99.83388904</v>
       </c>
       <c r="C128" t="n">
-        <v>102.52255645</v>
+        <v>102.82994249</v>
       </c>
       <c r="D128" t="n">
-        <v>100.05571516</v>
+        <v>100.41325659</v>
       </c>
       <c r="E128" t="n">
-        <v>99.22299511999999</v>
+        <v>99.53240636</v>
       </c>
       <c r="F128" t="n">
-        <v>103.31509599</v>
+        <v>104.00420884</v>
       </c>
       <c r="G128" t="n">
-        <v>102.35187342</v>
+        <v>102.66865872</v>
       </c>
       <c r="H128" t="n">
-        <v>101.62417881</v>
+        <v>101.66110485</v>
       </c>
       <c r="I128" t="n">
-        <v>98.97381812</v>
+        <v>98.97721912999999</v>
       </c>
       <c r="J128" t="n">
-        <v>105.28708901</v>
+        <v>105.66605196</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>99.95263102</v>
+        <v>99.78576194</v>
       </c>
       <c r="C129" t="n">
-        <v>102.6515937</v>
+        <v>102.88744795</v>
       </c>
       <c r="D129" t="n">
-        <v>100.16913675</v>
+        <v>100.50891481</v>
       </c>
       <c r="E129" t="n">
-        <v>99.31118562</v>
+        <v>99.64003796</v>
       </c>
       <c r="F129" t="n">
-        <v>103.65340417</v>
+        <v>104.05680515</v>
       </c>
       <c r="G129" t="n">
-        <v>102.48708143</v>
+        <v>102.76981152</v>
       </c>
       <c r="H129" t="n">
-        <v>101.6466299</v>
+        <v>101.64092703</v>
       </c>
       <c r="I129" t="n">
-        <v>98.94183237999999</v>
+        <v>98.95663514</v>
       </c>
       <c r="J129" t="n">
-        <v>105.44160138</v>
+        <v>105.89413238</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>99.91722248000001</v>
+        <v>99.73278976</v>
       </c>
       <c r="C130" t="n">
-        <v>102.7493987</v>
+        <v>102.94160167</v>
       </c>
       <c r="D130" t="n">
-        <v>100.2950014</v>
+        <v>100.58519448</v>
       </c>
       <c r="E130" t="n">
-        <v>99.41973036</v>
+        <v>99.72001003</v>
       </c>
       <c r="F130" t="n">
-        <v>103.87869826</v>
+        <v>104.08742763</v>
       </c>
       <c r="G130" t="n">
-        <v>102.56359059</v>
+        <v>102.8628865</v>
       </c>
       <c r="H130" t="n">
-        <v>101.66348387</v>
+        <v>101.60926013</v>
       </c>
       <c r="I130" t="n">
-        <v>98.9449405</v>
+        <v>98.90794511999999</v>
       </c>
       <c r="J130" t="n">
-        <v>105.48444493</v>
+        <v>106.13404619</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.83388904</v>
+        <v>99.71045418</v>
       </c>
       <c r="C131" t="n">
-        <v>102.82994249</v>
+        <v>103.01772111</v>
       </c>
       <c r="D131" t="n">
-        <v>100.41325659</v>
+        <v>100.61395631</v>
       </c>
       <c r="E131" t="n">
-        <v>99.53240636</v>
+        <v>99.79450257000001</v>
       </c>
       <c r="F131" t="n">
-        <v>104.00420884</v>
+        <v>104.16490532</v>
       </c>
       <c r="G131" t="n">
-        <v>102.66865872</v>
+        <v>103.01335145</v>
       </c>
       <c r="H131" t="n">
-        <v>101.66110485</v>
+        <v>101.59686653</v>
       </c>
       <c r="I131" t="n">
-        <v>98.97721912999999</v>
+        <v>98.88532044</v>
       </c>
       <c r="J131" t="n">
-        <v>105.66605196</v>
+        <v>106.52474465</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99.78576194</v>
+        <v>99.67661305</v>
       </c>
       <c r="C132" t="n">
-        <v>102.88744795</v>
+        <v>103.11152947</v>
       </c>
       <c r="D132" t="n">
-        <v>100.50891481</v>
+        <v>100.61559472</v>
       </c>
       <c r="E132" t="n">
-        <v>99.64003796</v>
+        <v>99.88031241</v>
       </c>
       <c r="F132" t="n">
-        <v>104.05680515</v>
+        <v>104.32025996</v>
       </c>
       <c r="G132" t="n">
-        <v>102.76981152</v>
+        <v>103.20560194</v>
       </c>
       <c r="H132" t="n">
-        <v>101.64092703</v>
+        <v>101.59859925</v>
       </c>
       <c r="I132" t="n">
-        <v>98.95663514</v>
+        <v>98.92720382</v>
       </c>
       <c r="J132" t="n">
-        <v>105.89413238</v>
+        <v>106.99459573</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>99.73278976</v>
+        <v>99.64885652</v>
       </c>
       <c r="C133" t="n">
-        <v>102.94160167</v>
+        <v>103.1835963</v>
       </c>
       <c r="D133" t="n">
-        <v>100.58519448</v>
+        <v>100.62341161</v>
       </c>
       <c r="E133" t="n">
-        <v>99.72001003</v>
+        <v>99.98624823999999</v>
       </c>
       <c r="F133" t="n">
-        <v>104.08742763</v>
+        <v>104.46509876</v>
       </c>
       <c r="G133" t="n">
-        <v>102.8628865</v>
+        <v>103.32217393</v>
       </c>
       <c r="H133" t="n">
-        <v>101.60926013</v>
+        <v>101.61546107</v>
       </c>
       <c r="I133" t="n">
-        <v>98.90794511999999</v>
+        <v>99.02176301</v>
       </c>
       <c r="J133" t="n">
-        <v>106.13404619</v>
+        <v>107.21327564</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>100.52136698</v>
+        <v>99.86257395</v>
       </c>
       <c r="C134" t="n">
-        <v>103.44088194</v>
+        <v>103.17075173</v>
       </c>
       <c r="D134" t="n">
-        <v>100.43648208</v>
+        <v>101.00332918</v>
       </c>
       <c r="E134" t="n">
-        <v>102.33249442</v>
+        <v>101.4276733</v>
       </c>
       <c r="F134" t="n">
-        <v>105.86669099</v>
+        <v>106.8470566</v>
       </c>
       <c r="G134" t="n">
-        <v>105.6493203</v>
+        <v>104.91208271</v>
       </c>
       <c r="H134" t="n">
-        <v>102.63566266</v>
+        <v>101.84920276</v>
       </c>
       <c r="I134" t="n">
-        <v>101.81068131</v>
+        <v>99.82099703</v>
       </c>
       <c r="J134" t="n">
-        <v>112.40217707</v>
+        <v>110.33719701</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>100.52198812</v>
+        <v>99.75734847</v>
       </c>
       <c r="C135" t="n">
-        <v>103.41925165</v>
+        <v>103.02862617</v>
       </c>
       <c r="D135" t="n">
-        <v>100.40265104</v>
+        <v>100.65656856</v>
       </c>
       <c r="E135" t="n">
-        <v>102.38783288</v>
+        <v>101.3818717</v>
       </c>
       <c r="F135" t="n">
-        <v>105.59540046</v>
+        <v>106.44107157</v>
       </c>
       <c r="G135" t="n">
-        <v>105.51693508</v>
+        <v>104.88307107</v>
       </c>
       <c r="H135" t="n">
-        <v>102.74538085</v>
+        <v>101.88224659</v>
       </c>
       <c r="I135" t="n">
-        <v>101.96697199</v>
+        <v>100.00617612</v>
       </c>
       <c r="J135" t="n">
-        <v>112.06074018</v>
+        <v>110.6169778</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>100.50242129</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>103.36342676</v>
+        <v>103.1</v>
       </c>
       <c r="D136" t="n">
-        <v>100.37424523</v>
+        <v>100.6</v>
       </c>
       <c r="E136" t="n">
-        <v>102.39409446</v>
+        <v>101.6</v>
       </c>
       <c r="F136" t="n">
-        <v>105.291229</v>
+        <v>106.5</v>
       </c>
       <c r="G136" t="n">
-        <v>105.39343318</v>
+        <v>105</v>
       </c>
       <c r="H136" t="n">
-        <v>102.83958905</v>
+        <v>102</v>
       </c>
       <c r="I136" t="n">
-        <v>102.12294108</v>
+        <v>100.3</v>
       </c>
       <c r="J136" t="n">
-        <v>111.7981733</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.86257395</v>
+        <v>100</v>
       </c>
       <c r="C137" t="n">
-        <v>103.17075173</v>
+        <v>103.1</v>
       </c>
       <c r="D137" t="n">
-        <v>101.00332918</v>
+        <v>100.6</v>
       </c>
       <c r="E137" t="n">
-        <v>101.4276733</v>
+        <v>101.7</v>
       </c>
       <c r="F137" t="n">
-        <v>106.8470566</v>
+        <v>106.4</v>
       </c>
       <c r="G137" t="n">
-        <v>104.91208271</v>
+        <v>105.1</v>
       </c>
       <c r="H137" t="n">
-        <v>101.84920276</v>
+        <v>102.1</v>
       </c>
       <c r="I137" t="n">
-        <v>99.82099703</v>
+        <v>100.6</v>
       </c>
       <c r="J137" t="n">
-        <v>110.33719701</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.75734847</v>
+        <v>100.2</v>
       </c>
       <c r="C138" t="n">
-        <v>103.02862617</v>
+        <v>103.1</v>
       </c>
       <c r="D138" t="n">
-        <v>100.65656856</v>
+        <v>100.6</v>
       </c>
       <c r="E138" t="n">
-        <v>101.3818717</v>
+        <v>101.8</v>
       </c>
       <c r="F138" t="n">
-        <v>106.44107157</v>
+        <v>106.3</v>
       </c>
       <c r="G138" t="n">
-        <v>104.88307107</v>
+        <v>105.2</v>
       </c>
       <c r="H138" t="n">
-        <v>101.88224659</v>
+        <v>102.2</v>
       </c>
       <c r="I138" t="n">
-        <v>100.00617612</v>
+        <v>100.8</v>
       </c>
       <c r="J138" t="n">
-        <v>110.6169778</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C139" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D139" t="n">
         <v>100.6</v>
       </c>
       <c r="E139" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="F139" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="G139" t="n">
-        <v>105</v>
+        <v>105.4</v>
       </c>
       <c r="H139" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="I139" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="J139" t="n">
-        <v>111</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>100</v>
+        <v>100.35457113</v>
       </c>
       <c r="C140" t="n">
-        <v>103.1</v>
+        <v>103.23784316</v>
       </c>
       <c r="D140" t="n">
-        <v>100.6</v>
+        <v>100.57963064</v>
       </c>
       <c r="E140" t="n">
-        <v>101.7</v>
+        <v>102.0620415</v>
       </c>
       <c r="F140" t="n">
-        <v>106.4</v>
+        <v>106.24669155</v>
       </c>
       <c r="G140" t="n">
-        <v>105.1</v>
+        <v>105.5435292</v>
       </c>
       <c r="H140" t="n">
-        <v>102.1</v>
+        <v>102.34855496</v>
       </c>
       <c r="I140" t="n">
-        <v>100.6</v>
+        <v>101.18937495</v>
       </c>
       <c r="J140" t="n">
-        <v>111.1</v>
+        <v>112.18161928</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>100.2</v>
+        <v>100.43484238</v>
       </c>
       <c r="C141" t="n">
-        <v>103.1</v>
+        <v>103.34969182</v>
       </c>
       <c r="D141" t="n">
-        <v>100.6</v>
+        <v>100.55595298</v>
       </c>
       <c r="E141" t="n">
-        <v>101.8</v>
+        <v>102.15461758</v>
       </c>
       <c r="F141" t="n">
-        <v>106.3</v>
+        <v>106.1490091</v>
       </c>
       <c r="G141" t="n">
-        <v>105.2</v>
+        <v>105.61612973</v>
       </c>
       <c r="H141" t="n">
-        <v>102.2</v>
+        <v>102.41307096</v>
       </c>
       <c r="I141" t="n">
-        <v>100.8</v>
+        <v>101.40015416</v>
       </c>
       <c r="J141" t="n">
-        <v>111.2</v>
+        <v>112.33374316</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>100.3</v>
+        <v>100.49558868</v>
       </c>
       <c r="C142" t="n">
-        <v>103.2</v>
+        <v>103.43405183</v>
       </c>
       <c r="D142" t="n">
-        <v>100.6</v>
+        <v>100.48841702</v>
       </c>
       <c r="E142" t="n">
-        <v>102</v>
+        <v>102.248622</v>
       </c>
       <c r="F142" t="n">
-        <v>106.3</v>
+        <v>106.02813155</v>
       </c>
       <c r="G142" t="n">
-        <v>105.4</v>
+        <v>105.66669297</v>
       </c>
       <c r="H142" t="n">
-        <v>102.3</v>
+        <v>102.5193598</v>
       </c>
       <c r="I142" t="n">
-        <v>101</v>
+        <v>101.59593865</v>
       </c>
       <c r="J142" t="n">
-        <v>111.8</v>
+        <v>112.45650289</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>100.35457113</v>
+        <v>100.52136698</v>
       </c>
       <c r="C143" t="n">
-        <v>103.23784316</v>
+        <v>103.44088194</v>
       </c>
       <c r="D143" t="n">
-        <v>100.57963064</v>
+        <v>100.43648208</v>
       </c>
       <c r="E143" t="n">
-        <v>102.0620415</v>
+        <v>102.33249442</v>
       </c>
       <c r="F143" t="n">
-        <v>106.24669155</v>
+        <v>105.86669099</v>
       </c>
       <c r="G143" t="n">
-        <v>105.5435292</v>
+        <v>105.6493203</v>
       </c>
       <c r="H143" t="n">
-        <v>102.34855496</v>
+        <v>102.63566266</v>
       </c>
       <c r="I143" t="n">
-        <v>101.18937495</v>
+        <v>101.81068131</v>
       </c>
       <c r="J143" t="n">
-        <v>112.18161928</v>
+        <v>112.40217707</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>100.43484238</v>
+        <v>100.52198812</v>
       </c>
       <c r="C144" t="n">
-        <v>103.34969182</v>
+        <v>103.41925165</v>
       </c>
       <c r="D144" t="n">
-        <v>100.55595298</v>
+        <v>100.40265104</v>
       </c>
       <c r="E144" t="n">
-        <v>102.15461758</v>
+        <v>102.38783288</v>
       </c>
       <c r="F144" t="n">
-        <v>106.1490091</v>
+        <v>105.59540046</v>
       </c>
       <c r="G144" t="n">
-        <v>105.61612973</v>
+        <v>105.51693508</v>
       </c>
       <c r="H144" t="n">
-        <v>102.41307096</v>
+        <v>102.74538085</v>
       </c>
       <c r="I144" t="n">
-        <v>101.40015416</v>
+        <v>101.96697199</v>
       </c>
       <c r="J144" t="n">
-        <v>112.33374316</v>
+        <v>112.06074018</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.49558868</v>
+        <v>100.50242129</v>
       </c>
       <c r="C145" t="n">
-        <v>103.43405183</v>
+        <v>103.36342676</v>
       </c>
       <c r="D145" t="n">
-        <v>100.48841702</v>
+        <v>100.37424523</v>
       </c>
       <c r="E145" t="n">
-        <v>102.248622</v>
+        <v>102.39409446</v>
       </c>
       <c r="F145" t="n">
-        <v>106.02813155</v>
+        <v>105.291229</v>
       </c>
       <c r="G145" t="n">
-        <v>105.66669297</v>
+        <v>105.39343318</v>
       </c>
       <c r="H145" t="n">
-        <v>102.5193598</v>
+        <v>102.83958905</v>
       </c>
       <c r="I145" t="n">
-        <v>101.59593865</v>
+        <v>102.12294108</v>
       </c>
       <c r="J145" t="n">
-        <v>112.45650289</v>
+        <v>111.7981733</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>99.85482159999999</v>
+        <v>100.18628412</v>
       </c>
       <c r="C146" t="n">
-        <v>102.06553043</v>
+        <v>102.6059321</v>
       </c>
       <c r="D146" t="n">
-        <v>100.41430651</v>
+        <v>100.68770299</v>
       </c>
       <c r="E146" t="n">
-        <v>102.00761363</v>
+        <v>102.5631308</v>
       </c>
       <c r="F146" t="n">
-        <v>102.01615182</v>
+        <v>101.94942625</v>
       </c>
       <c r="G146" t="n">
-        <v>102.72039785</v>
+        <v>104.54848025</v>
       </c>
       <c r="H146" t="n">
-        <v>103.12167306</v>
+        <v>103.70897941</v>
       </c>
       <c r="I146" t="n">
-        <v>103.34400936</v>
+        <v>103.33799301</v>
       </c>
       <c r="J146" t="n">
-        <v>105.09735712</v>
+        <v>110.50777282</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>99.87156939</v>
+        <v>100.1423697</v>
       </c>
       <c r="C147" t="n">
-        <v>102.02339111</v>
+        <v>102.6486462</v>
       </c>
       <c r="D147" t="n">
-        <v>100.46148121</v>
+        <v>100.13069909</v>
       </c>
       <c r="E147" t="n">
-        <v>101.96187264</v>
+        <v>102.53911431</v>
       </c>
       <c r="F147" t="n">
-        <v>102.06983879</v>
+        <v>102.01940709</v>
       </c>
       <c r="G147" t="n">
-        <v>102.65766922</v>
+        <v>103.85065729</v>
       </c>
       <c r="H147" t="n">
-        <v>102.99059077</v>
+        <v>103.71134821</v>
       </c>
       <c r="I147" t="n">
-        <v>103.24368598</v>
+        <v>103.57264081</v>
       </c>
       <c r="J147" t="n">
-        <v>104.90025449</v>
+        <v>108.31395322</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>99.88183007000001</v>
+        <v>100.18443505</v>
       </c>
       <c r="C148" t="n">
-        <v>101.99974674</v>
+        <v>102.61120255</v>
       </c>
       <c r="D148" t="n">
-        <v>100.51223885</v>
+        <v>100.11635451</v>
       </c>
       <c r="E148" t="n">
-        <v>101.93570036</v>
+        <v>102.42801337</v>
       </c>
       <c r="F148" t="n">
-        <v>102.14622646</v>
+        <v>102.00917898</v>
       </c>
       <c r="G148" t="n">
-        <v>102.64628599</v>
+        <v>103.76205489</v>
       </c>
       <c r="H148" t="n">
-        <v>102.86544983</v>
+        <v>103.66190649</v>
       </c>
       <c r="I148" t="n">
-        <v>103.12750801</v>
+        <v>103.63386003</v>
       </c>
       <c r="J148" t="n">
-        <v>104.84465994</v>
+        <v>108.03963392</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.18628412</v>
+        <v>100.20921626</v>
       </c>
       <c r="C149" t="n">
-        <v>102.6059321</v>
+        <v>102.57779157</v>
       </c>
       <c r="D149" t="n">
-        <v>100.68770299</v>
+        <v>100.16778098</v>
       </c>
       <c r="E149" t="n">
-        <v>102.5631308</v>
+        <v>102.35858559</v>
       </c>
       <c r="F149" t="n">
-        <v>101.94942625</v>
+        <v>101.95081689</v>
       </c>
       <c r="G149" t="n">
-        <v>104.54848025</v>
+        <v>103.66255125</v>
       </c>
       <c r="H149" t="n">
-        <v>103.70897941</v>
+        <v>103.60491036</v>
       </c>
       <c r="I149" t="n">
-        <v>103.33799301</v>
+        <v>103.62129175</v>
       </c>
       <c r="J149" t="n">
-        <v>110.50777282</v>
+        <v>107.76749168</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.1423697</v>
+        <v>100.14457681</v>
       </c>
       <c r="C150" t="n">
-        <v>102.6486462</v>
+        <v>102.48749813</v>
       </c>
       <c r="D150" t="n">
-        <v>100.13069909</v>
+        <v>100.17840104</v>
       </c>
       <c r="E150" t="n">
-        <v>102.53911431</v>
+        <v>102.27459797</v>
       </c>
       <c r="F150" t="n">
-        <v>102.01940709</v>
+        <v>101.8715294</v>
       </c>
       <c r="G150" t="n">
-        <v>103.85065729</v>
+        <v>103.52979705</v>
       </c>
       <c r="H150" t="n">
-        <v>103.71134821</v>
+        <v>103.53890599</v>
       </c>
       <c r="I150" t="n">
-        <v>103.57264081</v>
+        <v>103.5198913</v>
       </c>
       <c r="J150" t="n">
-        <v>108.31395322</v>
+        <v>107.49480662</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100.18443505</v>
+        <v>100.04798509</v>
       </c>
       <c r="C151" t="n">
-        <v>102.61120255</v>
+        <v>102.39505885</v>
       </c>
       <c r="D151" t="n">
-        <v>100.11635451</v>
+        <v>100.19236976</v>
       </c>
       <c r="E151" t="n">
-        <v>102.42801337</v>
+        <v>102.20887391</v>
       </c>
       <c r="F151" t="n">
-        <v>102.00917898</v>
+        <v>101.83423151</v>
       </c>
       <c r="G151" t="n">
-        <v>103.76205489</v>
+        <v>103.29877572</v>
       </c>
       <c r="H151" t="n">
-        <v>103.66190649</v>
+        <v>103.48271348</v>
       </c>
       <c r="I151" t="n">
-        <v>103.63386003</v>
+        <v>103.47696096</v>
       </c>
       <c r="J151" t="n">
-        <v>108.03963392</v>
+        <v>106.8694736</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>100.20921626</v>
+        <v>99.91924158</v>
       </c>
       <c r="C152" t="n">
-        <v>102.57779157</v>
+        <v>102.30445612</v>
       </c>
       <c r="D152" t="n">
-        <v>100.16778098</v>
+        <v>100.22786294</v>
       </c>
       <c r="E152" t="n">
-        <v>102.35858559</v>
+        <v>102.16635841</v>
       </c>
       <c r="F152" t="n">
-        <v>101.95081689</v>
+        <v>101.87535644</v>
       </c>
       <c r="G152" t="n">
-        <v>103.66255125</v>
+        <v>103.07990214</v>
       </c>
       <c r="H152" t="n">
-        <v>103.60491036</v>
+        <v>103.42063419</v>
       </c>
       <c r="I152" t="n">
-        <v>103.62129175</v>
+        <v>103.4523365</v>
       </c>
       <c r="J152" t="n">
-        <v>107.76749168</v>
+        <v>106.22606898</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.14457681</v>
+        <v>99.83131149</v>
       </c>
       <c r="C153" t="n">
-        <v>102.48749813</v>
+        <v>102.18191843</v>
       </c>
       <c r="D153" t="n">
-        <v>100.17840104</v>
+        <v>100.25270523</v>
       </c>
       <c r="E153" t="n">
-        <v>102.27459797</v>
+        <v>102.11415118</v>
       </c>
       <c r="F153" t="n">
-        <v>101.8715294</v>
+        <v>101.92014321</v>
       </c>
       <c r="G153" t="n">
-        <v>103.52979705</v>
+        <v>102.94926698</v>
       </c>
       <c r="H153" t="n">
-        <v>103.53890599</v>
+        <v>103.362353</v>
       </c>
       <c r="I153" t="n">
-        <v>103.5198913</v>
+        <v>103.41343075</v>
       </c>
       <c r="J153" t="n">
-        <v>107.49480662</v>
+        <v>105.86348883</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>100.04798509</v>
+        <v>99.82229249</v>
       </c>
       <c r="C154" t="n">
-        <v>102.39505885</v>
+        <v>102.0989515</v>
       </c>
       <c r="D154" t="n">
-        <v>100.19236976</v>
+        <v>100.34109231</v>
       </c>
       <c r="E154" t="n">
-        <v>102.20887391</v>
+        <v>102.06085249</v>
       </c>
       <c r="F154" t="n">
-        <v>101.83423151</v>
+        <v>101.96586617</v>
       </c>
       <c r="G154" t="n">
-        <v>103.29877572</v>
+        <v>102.83259469</v>
       </c>
       <c r="H154" t="n">
-        <v>103.48271348</v>
+        <v>103.2514391</v>
       </c>
       <c r="I154" t="n">
-        <v>103.47696096</v>
+        <v>103.41373618</v>
       </c>
       <c r="J154" t="n">
-        <v>106.8694736</v>
+        <v>105.47468811</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>99.91924158</v>
+        <v>99.85482159999999</v>
       </c>
       <c r="C155" t="n">
-        <v>102.30445612</v>
+        <v>102.06553043</v>
       </c>
       <c r="D155" t="n">
-        <v>100.22786294</v>
+        <v>100.41430651</v>
       </c>
       <c r="E155" t="n">
-        <v>102.16635841</v>
+        <v>102.00761363</v>
       </c>
       <c r="F155" t="n">
-        <v>101.87535644</v>
+        <v>102.01615182</v>
       </c>
       <c r="G155" t="n">
-        <v>103.07990214</v>
+        <v>102.72039785</v>
       </c>
       <c r="H155" t="n">
-        <v>103.42063419</v>
+        <v>103.12167306</v>
       </c>
       <c r="I155" t="n">
-        <v>103.4523365</v>
+        <v>103.34400936</v>
       </c>
       <c r="J155" t="n">
-        <v>106.22606898</v>
+        <v>105.09735712</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>99.83131149</v>
+        <v>99.87156939</v>
       </c>
       <c r="C156" t="n">
-        <v>102.18191843</v>
+        <v>102.02339111</v>
       </c>
       <c r="D156" t="n">
-        <v>100.25270523</v>
+        <v>100.46148121</v>
       </c>
       <c r="E156" t="n">
-        <v>102.11415118</v>
+        <v>101.96187264</v>
       </c>
       <c r="F156" t="n">
-        <v>101.92014321</v>
+        <v>102.06983879</v>
       </c>
       <c r="G156" t="n">
-        <v>102.94926698</v>
+        <v>102.65766922</v>
       </c>
       <c r="H156" t="n">
-        <v>103.362353</v>
+        <v>102.99059077</v>
       </c>
       <c r="I156" t="n">
-        <v>103.41343075</v>
+        <v>103.24368598</v>
       </c>
       <c r="J156" t="n">
-        <v>105.86348883</v>
+        <v>104.90025449</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>99.82229249</v>
+        <v>99.88183007000001</v>
       </c>
       <c r="C157" t="n">
-        <v>102.0989515</v>
+        <v>101.99974674</v>
       </c>
       <c r="D157" t="n">
-        <v>100.34109231</v>
+        <v>100.51223885</v>
       </c>
       <c r="E157" t="n">
-        <v>102.06085249</v>
+        <v>101.93570036</v>
       </c>
       <c r="F157" t="n">
-        <v>101.96586617</v>
+        <v>102.14622646</v>
       </c>
       <c r="G157" t="n">
-        <v>102.83259469</v>
+        <v>102.64628599</v>
       </c>
       <c r="H157" t="n">
-        <v>103.2514391</v>
+        <v>102.86544983</v>
       </c>
       <c r="I157" t="n">
-        <v>103.41373618</v>
+        <v>103.12750801</v>
       </c>
       <c r="J157" t="n">
-        <v>105.47468811</v>
+        <v>104.84465994</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.58968471</v>
+        <v>99.73829387000001</v>
       </c>
       <c r="C158" t="n">
-        <v>101.41064909</v>
+        <v>101.75605732</v>
       </c>
       <c r="D158" t="n">
-        <v>101.5342894</v>
+        <v>100.52133422</v>
       </c>
       <c r="E158" t="n">
-        <v>101.50156788</v>
+        <v>101.49418236</v>
       </c>
       <c r="F158" t="n">
-        <v>102.81976103</v>
+        <v>102.92257234</v>
       </c>
       <c r="G158" t="n">
-        <v>102.59714178</v>
+        <v>102.03053023</v>
       </c>
       <c r="H158" t="n">
-        <v>100.48325709</v>
+        <v>101.40220273</v>
       </c>
       <c r="I158" t="n">
-        <v>102.33367331</v>
+        <v>102.50677161</v>
       </c>
       <c r="J158" t="n">
-        <v>104.60609512</v>
+        <v>102.88391152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.57872164</v>
+        <v>99.98209358</v>
       </c>
       <c r="C159" t="n">
-        <v>101.37095473</v>
+        <v>101.77299143</v>
       </c>
       <c r="D159" t="n">
-        <v>101.65141045</v>
+        <v>101.24069877</v>
       </c>
       <c r="E159" t="n">
-        <v>101.48629217</v>
+        <v>101.54160927</v>
       </c>
       <c r="F159" t="n">
-        <v>102.80150874</v>
+        <v>102.86143147</v>
       </c>
       <c r="G159" t="n">
-        <v>102.63553575</v>
+        <v>102.62483226</v>
       </c>
       <c r="H159" t="n">
-        <v>100.41878149</v>
+        <v>101.25881797</v>
       </c>
       <c r="I159" t="n">
-        <v>102.2998189</v>
+        <v>102.3281419</v>
       </c>
       <c r="J159" t="n">
-        <v>104.72678138</v>
+        <v>104.43293708</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>99.60524049</v>
+        <v>99.89990744000001</v>
       </c>
       <c r="C160" t="n">
-        <v>101.332284</v>
+        <v>101.74438895</v>
       </c>
       <c r="D160" t="n">
-        <v>101.75283892</v>
+        <v>101.40015071</v>
       </c>
       <c r="E160" t="n">
-        <v>101.4748869</v>
+        <v>101.56804584</v>
       </c>
       <c r="F160" t="n">
-        <v>102.79915528</v>
+        <v>102.88059731</v>
       </c>
       <c r="G160" t="n">
-        <v>102.62401527</v>
+        <v>102.43956662</v>
       </c>
       <c r="H160" t="n">
-        <v>100.34907684</v>
+        <v>101.16973789</v>
       </c>
       <c r="I160" t="n">
-        <v>102.27958935</v>
+        <v>102.31375604</v>
       </c>
       <c r="J160" t="n">
-        <v>104.66970226</v>
+        <v>103.84762516</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.73829387000001</v>
+        <v>99.64853569</v>
       </c>
       <c r="C161" t="n">
-        <v>101.75605732</v>
+        <v>101.68212833</v>
       </c>
       <c r="D161" t="n">
-        <v>100.52133422</v>
+        <v>101.42632721</v>
       </c>
       <c r="E161" t="n">
-        <v>101.49418236</v>
+        <v>101.56976397</v>
       </c>
       <c r="F161" t="n">
-        <v>102.92257234</v>
+        <v>102.88276102</v>
       </c>
       <c r="G161" t="n">
-        <v>102.03053023</v>
+        <v>102.42619531</v>
       </c>
       <c r="H161" t="n">
-        <v>101.40220273</v>
+        <v>101.07146806</v>
       </c>
       <c r="I161" t="n">
-        <v>102.50677161</v>
+        <v>102.35716514</v>
       </c>
       <c r="J161" t="n">
-        <v>102.88391152</v>
+        <v>103.89724139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>99.98209358</v>
+        <v>99.4812864</v>
       </c>
       <c r="C162" t="n">
-        <v>101.77299143</v>
+        <v>101.64383434</v>
       </c>
       <c r="D162" t="n">
-        <v>101.24069877</v>
+        <v>101.40445392</v>
       </c>
       <c r="E162" t="n">
-        <v>101.54160927</v>
+        <v>101.56894072</v>
       </c>
       <c r="F162" t="n">
-        <v>102.86143147</v>
+        <v>102.90574344</v>
       </c>
       <c r="G162" t="n">
-        <v>102.62483226</v>
+        <v>102.3607231</v>
       </c>
       <c r="H162" t="n">
-        <v>101.25881797</v>
+        <v>100.95451173</v>
       </c>
       <c r="I162" t="n">
-        <v>102.3281419</v>
+        <v>102.39002853</v>
       </c>
       <c r="J162" t="n">
-        <v>104.43293708</v>
+        <v>103.76435754</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.89990744000001</v>
+        <v>99.44849677000001</v>
       </c>
       <c r="C163" t="n">
-        <v>101.74438895</v>
+        <v>101.59965376</v>
       </c>
       <c r="D163" t="n">
-        <v>101.40015071</v>
+        <v>101.39627323</v>
       </c>
       <c r="E163" t="n">
-        <v>101.56804584</v>
+        <v>101.55663367</v>
       </c>
       <c r="F163" t="n">
-        <v>102.88059731</v>
+        <v>102.93349698</v>
       </c>
       <c r="G163" t="n">
-        <v>102.43956662</v>
+        <v>102.41167695</v>
       </c>
       <c r="H163" t="n">
-        <v>101.16973789</v>
+        <v>100.83893029</v>
       </c>
       <c r="I163" t="n">
-        <v>102.31375604</v>
+        <v>102.36874682</v>
       </c>
       <c r="J163" t="n">
-        <v>103.84762516</v>
+        <v>103.95352124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>99.64853569</v>
+        <v>99.51900485</v>
       </c>
       <c r="C164" t="n">
-        <v>101.68212833</v>
+        <v>101.54518216</v>
       </c>
       <c r="D164" t="n">
-        <v>101.42632721</v>
+        <v>101.38535882</v>
       </c>
       <c r="E164" t="n">
-        <v>101.56976397</v>
+        <v>101.53214907</v>
       </c>
       <c r="F164" t="n">
-        <v>102.88276102</v>
+        <v>102.90925627</v>
       </c>
       <c r="G164" t="n">
-        <v>102.42619531</v>
+        <v>102.44899378</v>
       </c>
       <c r="H164" t="n">
-        <v>101.07146806</v>
+        <v>100.74298999</v>
       </c>
       <c r="I164" t="n">
-        <v>102.35716514</v>
+        <v>102.34232553</v>
       </c>
       <c r="J164" t="n">
-        <v>103.89724139</v>
+        <v>104.10211172</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>99.4812864</v>
+        <v>99.58497088999999</v>
       </c>
       <c r="C165" t="n">
-        <v>101.64383434</v>
+        <v>101.5045765</v>
       </c>
       <c r="D165" t="n">
-        <v>101.40445392</v>
+        <v>101.36575732</v>
       </c>
       <c r="E165" t="n">
-        <v>101.56894072</v>
+        <v>101.51443079</v>
       </c>
       <c r="F165" t="n">
-        <v>102.90574344</v>
+        <v>102.87305078</v>
       </c>
       <c r="G165" t="n">
-        <v>102.3607231</v>
+        <v>102.4637114</v>
       </c>
       <c r="H165" t="n">
-        <v>100.95451173</v>
+        <v>100.65348113</v>
       </c>
       <c r="I165" t="n">
-        <v>102.39002853</v>
+        <v>102.33056583</v>
       </c>
       <c r="J165" t="n">
-        <v>103.76435754</v>
+        <v>104.17998755</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.44849677000001</v>
+        <v>99.61200053</v>
       </c>
       <c r="C166" t="n">
-        <v>101.59965376</v>
+        <v>101.45969628</v>
       </c>
       <c r="D166" t="n">
-        <v>101.39627323</v>
+        <v>101.42720249</v>
       </c>
       <c r="E166" t="n">
-        <v>101.55663367</v>
+        <v>101.49901516</v>
       </c>
       <c r="F166" t="n">
-        <v>102.93349698</v>
+        <v>102.84485532</v>
       </c>
       <c r="G166" t="n">
-        <v>102.41167695</v>
+        <v>102.52931325</v>
       </c>
       <c r="H166" t="n">
-        <v>100.83893029</v>
+        <v>100.56170372</v>
       </c>
       <c r="I166" t="n">
-        <v>102.36874682</v>
+        <v>102.32592075</v>
       </c>
       <c r="J166" t="n">
-        <v>103.95352124</v>
+        <v>104.39261878</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>99.51900485</v>
+        <v>99.58968471</v>
       </c>
       <c r="C167" t="n">
-        <v>101.54518216</v>
+        <v>101.41064909</v>
       </c>
       <c r="D167" t="n">
-        <v>101.38535882</v>
+        <v>101.5342894</v>
       </c>
       <c r="E167" t="n">
-        <v>101.53214907</v>
+        <v>101.50156788</v>
       </c>
       <c r="F167" t="n">
-        <v>102.90925627</v>
+        <v>102.81976103</v>
       </c>
       <c r="G167" t="n">
-        <v>102.44899378</v>
+        <v>102.59714178</v>
       </c>
       <c r="H167" t="n">
-        <v>100.74298999</v>
+        <v>100.48325709</v>
       </c>
       <c r="I167" t="n">
-        <v>102.34232553</v>
+        <v>102.33367331</v>
       </c>
       <c r="J167" t="n">
-        <v>104.10211172</v>
+        <v>104.60609512</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>99.58497088999999</v>
+        <v>99.57872164</v>
       </c>
       <c r="C168" t="n">
-        <v>101.5045765</v>
+        <v>101.37095473</v>
       </c>
       <c r="D168" t="n">
-        <v>101.36575732</v>
+        <v>101.65141045</v>
       </c>
       <c r="E168" t="n">
-        <v>101.51443079</v>
+        <v>101.48629217</v>
       </c>
       <c r="F168" t="n">
-        <v>102.87305078</v>
+        <v>102.80150874</v>
       </c>
       <c r="G168" t="n">
-        <v>102.4637114</v>
+        <v>102.63553575</v>
       </c>
       <c r="H168" t="n">
-        <v>100.65348113</v>
+        <v>100.41878149</v>
       </c>
       <c r="I168" t="n">
-        <v>102.33056583</v>
+        <v>102.2998189</v>
       </c>
       <c r="J168" t="n">
-        <v>104.17998755</v>
+        <v>104.72678138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>99.61200053</v>
+        <v>99.60524049</v>
       </c>
       <c r="C169" t="n">
-        <v>101.45969628</v>
+        <v>101.332284</v>
       </c>
       <c r="D169" t="n">
-        <v>101.42720249</v>
+        <v>101.75283892</v>
       </c>
       <c r="E169" t="n">
-        <v>101.49901516</v>
+        <v>101.4748869</v>
       </c>
       <c r="F169" t="n">
-        <v>102.84485532</v>
+        <v>102.79915528</v>
       </c>
       <c r="G169" t="n">
-        <v>102.52931325</v>
+        <v>102.62401527</v>
       </c>
       <c r="H169" t="n">
-        <v>100.56170372</v>
+        <v>100.34907684</v>
       </c>
       <c r="I169" t="n">
-        <v>102.32592075</v>
+        <v>102.27958935</v>
       </c>
       <c r="J169" t="n">
-        <v>104.39261878</v>
+        <v>104.66970226</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>100.0818838</v>
+        <v>100.1974986</v>
       </c>
       <c r="C170" t="n">
-        <v>101.24396073</v>
+        <v>101.14787761</v>
       </c>
       <c r="D170" t="n">
-        <v>102.07882133</v>
+        <v>103.34567691</v>
       </c>
       <c r="E170" t="n">
-        <v>101.20988992</v>
+        <v>101.47237924</v>
       </c>
       <c r="F170" t="n">
-        <v>102.22300113</v>
+        <v>102.81723561</v>
       </c>
       <c r="G170" t="n">
-        <v>102.09257889</v>
+        <v>102.48608048</v>
       </c>
       <c r="H170" t="n">
-        <v>99.37606814</v>
+        <v>99.27706187</v>
       </c>
       <c r="I170" t="n">
-        <v>102.3838738</v>
+        <v>101.92179889</v>
       </c>
       <c r="J170" t="n">
-        <v>103.18673395</v>
+        <v>103.67182722</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>100.00089116</v>
+        <v>99.89155186000001</v>
       </c>
       <c r="C171" t="n">
-        <v>101.2466739</v>
+        <v>101.0912583</v>
       </c>
       <c r="D171" t="n">
-        <v>101.9774875</v>
+        <v>102.74189365</v>
       </c>
       <c r="E171" t="n">
-        <v>101.20654211</v>
+        <v>101.36323555</v>
       </c>
       <c r="F171" t="n">
-        <v>102.14311032</v>
+        <v>102.80736083</v>
       </c>
       <c r="G171" t="n">
-        <v>102.03276429</v>
+        <v>102.21719027</v>
       </c>
       <c r="H171" t="n">
-        <v>99.37237202</v>
+        <v>99.29555697000001</v>
       </c>
       <c r="I171" t="n">
-        <v>102.40547058</v>
+        <v>102.07095002</v>
       </c>
       <c r="J171" t="n">
-        <v>103.10644505</v>
+        <v>103.1545766</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>99.88401453</v>
+        <v>99.79604544</v>
       </c>
       <c r="C172" t="n">
-        <v>101.270572</v>
+        <v>101.1177803</v>
       </c>
       <c r="D172" t="n">
-        <v>101.88454647</v>
+        <v>102.53453925</v>
       </c>
       <c r="E172" t="n">
-        <v>101.20018458</v>
+        <v>101.31894552</v>
       </c>
       <c r="F172" t="n">
-        <v>102.04730538</v>
+        <v>102.70963715</v>
       </c>
       <c r="G172" t="n">
-        <v>101.98842742</v>
+        <v>102.27292637</v>
       </c>
       <c r="H172" t="n">
-        <v>99.36875098</v>
+        <v>99.31261421000001</v>
       </c>
       <c r="I172" t="n">
-        <v>102.42415594</v>
+        <v>102.15782399</v>
       </c>
       <c r="J172" t="n">
-        <v>103.0853792</v>
+        <v>103.45716349</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.1974986</v>
+        <v>99.85989827</v>
       </c>
       <c r="C173" t="n">
-        <v>101.14787761</v>
+        <v>101.13628406</v>
       </c>
       <c r="D173" t="n">
-        <v>103.34567691</v>
+        <v>102.3953477</v>
       </c>
       <c r="E173" t="n">
-        <v>101.47237924</v>
+        <v>101.29314053</v>
       </c>
       <c r="F173" t="n">
-        <v>102.81723561</v>
+        <v>102.6325419</v>
       </c>
       <c r="G173" t="n">
-        <v>102.48608048</v>
+        <v>102.15506452</v>
       </c>
       <c r="H173" t="n">
-        <v>99.27706187</v>
+        <v>99.32283234000001</v>
       </c>
       <c r="I173" t="n">
-        <v>101.92179889</v>
+        <v>102.19393294</v>
       </c>
       <c r="J173" t="n">
-        <v>103.67182722</v>
+        <v>103.16595198</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.89155186000001</v>
+        <v>100.00270164</v>
       </c>
       <c r="C174" t="n">
-        <v>101.0912583</v>
+        <v>101.1581732</v>
       </c>
       <c r="D174" t="n">
-        <v>102.74189365</v>
+        <v>102.34055374</v>
       </c>
       <c r="E174" t="n">
-        <v>101.36323555</v>
+        <v>101.27147242</v>
       </c>
       <c r="F174" t="n">
-        <v>102.80736083</v>
+        <v>102.57249292</v>
       </c>
       <c r="G174" t="n">
-        <v>102.21719027</v>
+        <v>102.25</v>
       </c>
       <c r="H174" t="n">
-        <v>99.29555697000001</v>
+        <v>99.33843063</v>
       </c>
       <c r="I174" t="n">
-        <v>102.07095002</v>
+        <v>102.25612069</v>
       </c>
       <c r="J174" t="n">
-        <v>103.1545766</v>
+        <v>103.35003933</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.79604544</v>
+        <v>100.10883447</v>
       </c>
       <c r="C175" t="n">
-        <v>101.1177803</v>
+        <v>101.17809323</v>
       </c>
       <c r="D175" t="n">
-        <v>102.53453925</v>
+        <v>102.30017533</v>
       </c>
       <c r="E175" t="n">
-        <v>101.31894552</v>
+        <v>101.26201324</v>
       </c>
       <c r="F175" t="n">
-        <v>102.70963715</v>
+        <v>102.51470705</v>
       </c>
       <c r="G175" t="n">
-        <v>102.27292637</v>
+        <v>102.25861342</v>
       </c>
       <c r="H175" t="n">
-        <v>99.31261421000001</v>
+        <v>99.35274591</v>
       </c>
       <c r="I175" t="n">
-        <v>102.15782399</v>
+        <v>102.31307528</v>
       </c>
       <c r="J175" t="n">
-        <v>103.45716349</v>
+        <v>103.40477231</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>99.85989827</v>
+        <v>100.18991609</v>
       </c>
       <c r="C176" t="n">
-        <v>101.13628406</v>
+        <v>101.21360356</v>
       </c>
       <c r="D176" t="n">
-        <v>102.3953477</v>
+        <v>102.2745826</v>
       </c>
       <c r="E176" t="n">
-        <v>101.29314053</v>
+        <v>101.24334345</v>
       </c>
       <c r="F176" t="n">
-        <v>102.6325419</v>
+        <v>102.44341399</v>
       </c>
       <c r="G176" t="n">
-        <v>102.15506452</v>
+        <v>102.25524578</v>
       </c>
       <c r="H176" t="n">
-        <v>99.32283234000001</v>
+        <v>99.36452887999999</v>
       </c>
       <c r="I176" t="n">
-        <v>102.19393294</v>
+        <v>102.3579938</v>
       </c>
       <c r="J176" t="n">
-        <v>103.16595198</v>
+        <v>103.43204155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>100.00270164</v>
+        <v>100.1883578</v>
       </c>
       <c r="C177" t="n">
-        <v>101.1581732</v>
+        <v>101.23567609</v>
       </c>
       <c r="D177" t="n">
-        <v>102.34055374</v>
+        <v>102.23228836</v>
       </c>
       <c r="E177" t="n">
-        <v>101.27147242</v>
+        <v>101.22376215</v>
       </c>
       <c r="F177" t="n">
-        <v>102.57249292</v>
+        <v>102.36878077</v>
       </c>
       <c r="G177" t="n">
-        <v>102.25</v>
+        <v>102.21338629</v>
       </c>
       <c r="H177" t="n">
-        <v>99.33843063</v>
+        <v>99.36409741999999</v>
       </c>
       <c r="I177" t="n">
-        <v>102.25612069</v>
+        <v>102.38747679</v>
       </c>
       <c r="J177" t="n">
-        <v>103.35003933</v>
+        <v>103.38375531</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>100.10883447</v>
+        <v>100.12926877</v>
       </c>
       <c r="C178" t="n">
-        <v>101.17809323</v>
+        <v>101.23669251</v>
       </c>
       <c r="D178" t="n">
-        <v>102.30017533</v>
+        <v>102.19300091</v>
       </c>
       <c r="E178" t="n">
-        <v>101.26201324</v>
+        <v>101.21272316</v>
       </c>
       <c r="F178" t="n">
-        <v>102.51470705</v>
+        <v>102.28781295</v>
       </c>
       <c r="G178" t="n">
-        <v>102.25861342</v>
+        <v>102.14770349</v>
       </c>
       <c r="H178" t="n">
-        <v>99.35274591</v>
+        <v>99.36694051000001</v>
       </c>
       <c r="I178" t="n">
-        <v>102.31307528</v>
+        <v>102.38650009</v>
       </c>
       <c r="J178" t="n">
-        <v>103.40477231</v>
+        <v>103.26426205</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>100.18991609</v>
+        <v>100.0818838</v>
       </c>
       <c r="C179" t="n">
-        <v>101.21360356</v>
+        <v>101.24396073</v>
       </c>
       <c r="D179" t="n">
-        <v>102.2745826</v>
+        <v>102.07882133</v>
       </c>
       <c r="E179" t="n">
-        <v>101.24334345</v>
+        <v>101.20988992</v>
       </c>
       <c r="F179" t="n">
-        <v>102.44341399</v>
+        <v>102.22300113</v>
       </c>
       <c r="G179" t="n">
-        <v>102.25524578</v>
+        <v>102.09257889</v>
       </c>
       <c r="H179" t="n">
-        <v>99.36452887999999</v>
+        <v>99.37606814</v>
       </c>
       <c r="I179" t="n">
-        <v>102.3579938</v>
+        <v>102.3838738</v>
       </c>
       <c r="J179" t="n">
-        <v>103.43204155</v>
+        <v>103.18673395</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100.1883578</v>
+        <v>100.00089116</v>
       </c>
       <c r="C180" t="n">
-        <v>101.23567609</v>
+        <v>101.2466739</v>
       </c>
       <c r="D180" t="n">
-        <v>102.23228836</v>
+        <v>101.9774875</v>
       </c>
       <c r="E180" t="n">
-        <v>101.22376215</v>
+        <v>101.20654211</v>
       </c>
       <c r="F180" t="n">
-        <v>102.36878077</v>
+        <v>102.14311032</v>
       </c>
       <c r="G180" t="n">
-        <v>102.21338629</v>
+        <v>102.03276429</v>
       </c>
       <c r="H180" t="n">
-        <v>99.36409741999999</v>
+        <v>99.37237202</v>
       </c>
       <c r="I180" t="n">
-        <v>102.38747679</v>
+        <v>102.40547058</v>
       </c>
       <c r="J180" t="n">
-        <v>103.38375531</v>
+        <v>103.10644505</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>100.12926877</v>
+        <v>99.88401453</v>
       </c>
       <c r="C181" t="n">
-        <v>101.23669251</v>
+        <v>101.270572</v>
       </c>
       <c r="D181" t="n">
-        <v>102.19300091</v>
+        <v>101.88454647</v>
       </c>
       <c r="E181" t="n">
-        <v>101.21272316</v>
+        <v>101.20018458</v>
       </c>
       <c r="F181" t="n">
-        <v>102.28781295</v>
+        <v>102.04730538</v>
       </c>
       <c r="G181" t="n">
-        <v>102.14770349</v>
+        <v>101.98842742</v>
       </c>
       <c r="H181" t="n">
-        <v>99.36694051000001</v>
+        <v>99.36875098</v>
       </c>
       <c r="I181" t="n">
-        <v>102.38650009</v>
+        <v>102.42415594</v>
       </c>
       <c r="J181" t="n">
-        <v>103.26426205</v>
+        <v>103.0853792</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>98.22354946999999</v>
+        <v>97.77093757999999</v>
       </c>
       <c r="C182" t="n">
-        <v>101.87055694</v>
+        <v>101.61197717</v>
       </c>
       <c r="D182" t="n">
-        <v>101.47941748</v>
+        <v>100.29933316</v>
       </c>
       <c r="E182" t="n">
-        <v>101.06080213</v>
+        <v>100.91442318</v>
       </c>
       <c r="F182" t="n">
-        <v>100.70961995</v>
+        <v>100.8309846</v>
       </c>
       <c r="G182" t="n">
-        <v>101.41662899</v>
+        <v>100.76380909</v>
       </c>
       <c r="H182" t="n">
-        <v>101.80835682</v>
+        <v>99.5994778</v>
       </c>
       <c r="I182" t="n">
-        <v>102.85158232</v>
+        <v>102.86601151</v>
       </c>
       <c r="J182" t="n">
-        <v>102.30534089</v>
+        <v>101.10924251</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>98.25669532000001</v>
+        <v>98.03447216000001</v>
       </c>
       <c r="C183" t="n">
-        <v>101.93364746</v>
+        <v>101.76113645</v>
       </c>
       <c r="D183" t="n">
-        <v>101.45409767</v>
+        <v>101.06626761</v>
       </c>
       <c r="E183" t="n">
-        <v>101.03985444</v>
+        <v>101.18642027</v>
       </c>
       <c r="F183" t="n">
-        <v>100.7108496</v>
+        <v>100.70357186</v>
       </c>
       <c r="G183" t="n">
-        <v>101.42290603</v>
+        <v>101.09834448</v>
       </c>
       <c r="H183" t="n">
-        <v>101.99300003</v>
+        <v>99.51913604000001</v>
       </c>
       <c r="I183" t="n">
-        <v>102.79076408</v>
+        <v>102.90376031</v>
       </c>
       <c r="J183" t="n">
-        <v>102.30686782</v>
+        <v>101.7426435</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>98.29541018</v>
+        <v>98.1757293</v>
       </c>
       <c r="C184" t="n">
-        <v>101.98155772</v>
+        <v>101.69485669</v>
       </c>
       <c r="D184" t="n">
-        <v>101.44223141</v>
+        <v>101.23459305</v>
       </c>
       <c r="E184" t="n">
-        <v>101.02009209</v>
+        <v>101.19184767</v>
       </c>
       <c r="F184" t="n">
-        <v>100.71653112</v>
+        <v>100.67939872</v>
       </c>
       <c r="G184" t="n">
-        <v>101.44082395</v>
+        <v>101.19068098</v>
       </c>
       <c r="H184" t="n">
-        <v>102.14766431</v>
+        <v>99.502188</v>
       </c>
       <c r="I184" t="n">
-        <v>102.72746105</v>
+        <v>102.94263954</v>
       </c>
       <c r="J184" t="n">
-        <v>102.34042172</v>
+        <v>101.93841257</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97.77093757999999</v>
+        <v>98.24295038</v>
       </c>
       <c r="C185" t="n">
-        <v>101.61197717</v>
+        <v>101.71063081</v>
       </c>
       <c r="D185" t="n">
-        <v>100.29933316</v>
+        <v>101.33814958</v>
       </c>
       <c r="E185" t="n">
-        <v>100.91442318</v>
+        <v>101.17525577</v>
       </c>
       <c r="F185" t="n">
-        <v>100.8309846</v>
+        <v>100.6627247</v>
       </c>
       <c r="G185" t="n">
-        <v>100.76380909</v>
+        <v>101.26998423</v>
       </c>
       <c r="H185" t="n">
-        <v>99.5994778</v>
+        <v>99.50051108</v>
       </c>
       <c r="I185" t="n">
-        <v>102.86601151</v>
+        <v>102.92003436</v>
       </c>
       <c r="J185" t="n">
-        <v>101.10924251</v>
+        <v>102.13395265</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>98.03447216000001</v>
+        <v>98.32631856</v>
       </c>
       <c r="C186" t="n">
-        <v>101.76113645</v>
+        <v>101.71932833</v>
       </c>
       <c r="D186" t="n">
-        <v>101.06626761</v>
+        <v>101.40882058</v>
       </c>
       <c r="E186" t="n">
-        <v>101.18642027</v>
+        <v>101.1487221</v>
       </c>
       <c r="F186" t="n">
-        <v>100.70357186</v>
+        <v>100.67308138</v>
       </c>
       <c r="G186" t="n">
-        <v>101.09834448</v>
+        <v>101.26215755</v>
       </c>
       <c r="H186" t="n">
-        <v>99.51913604000001</v>
+        <v>99.93570108999999</v>
       </c>
       <c r="I186" t="n">
-        <v>102.90376031</v>
+        <v>102.90056983</v>
       </c>
       <c r="J186" t="n">
-        <v>101.7426435</v>
+        <v>102.0278926</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>98.1757293</v>
+        <v>98.35498684</v>
       </c>
       <c r="C187" t="n">
-        <v>101.69485669</v>
+        <v>101.75552754</v>
       </c>
       <c r="D187" t="n">
-        <v>101.23459305</v>
+        <v>101.46379782</v>
       </c>
       <c r="E187" t="n">
-        <v>101.19184767</v>
+        <v>101.12769349</v>
       </c>
       <c r="F187" t="n">
-        <v>100.67939872</v>
+        <v>100.69052476</v>
       </c>
       <c r="G187" t="n">
-        <v>101.19068098</v>
+        <v>101.28355269</v>
       </c>
       <c r="H187" t="n">
-        <v>99.502188</v>
+        <v>100.53181209</v>
       </c>
       <c r="I187" t="n">
-        <v>102.94263954</v>
+        <v>102.90273464</v>
       </c>
       <c r="J187" t="n">
-        <v>101.93841257</v>
+        <v>101.99930097</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>98.24295038</v>
+        <v>98.33135316000001</v>
       </c>
       <c r="C188" t="n">
-        <v>101.71063081</v>
+        <v>101.77891364</v>
       </c>
       <c r="D188" t="n">
-        <v>101.33814958</v>
+        <v>101.49556427</v>
       </c>
       <c r="E188" t="n">
-        <v>101.17525577</v>
+        <v>101.11209633</v>
       </c>
       <c r="F188" t="n">
-        <v>100.6627247</v>
+        <v>100.70364461</v>
       </c>
       <c r="G188" t="n">
-        <v>101.26998423</v>
+        <v>101.33541784</v>
       </c>
       <c r="H188" t="n">
-        <v>99.50051108</v>
+        <v>100.97145994</v>
       </c>
       <c r="I188" t="n">
-        <v>102.92003436</v>
+        <v>102.90932484</v>
       </c>
       <c r="J188" t="n">
-        <v>102.13395265</v>
+        <v>102.10218664</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98.32631856</v>
+        <v>98.27813037</v>
       </c>
       <c r="C189" t="n">
-        <v>101.71932833</v>
+        <v>101.79939581</v>
       </c>
       <c r="D189" t="n">
-        <v>101.40882058</v>
+        <v>101.53609213</v>
       </c>
       <c r="E189" t="n">
-        <v>101.1487221</v>
+        <v>101.09586571</v>
       </c>
       <c r="F189" t="n">
-        <v>100.67308138</v>
+        <v>100.71198257</v>
       </c>
       <c r="G189" t="n">
-        <v>101.26215755</v>
+        <v>101.4128946</v>
       </c>
       <c r="H189" t="n">
-        <v>99.93570108999999</v>
+        <v>101.31831671</v>
       </c>
       <c r="I189" t="n">
-        <v>102.90056983</v>
+        <v>102.91213816</v>
       </c>
       <c r="J189" t="n">
-        <v>102.0278926</v>
+        <v>102.2983995</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98.35498684</v>
+        <v>98.23184498000001</v>
       </c>
       <c r="C190" t="n">
-        <v>101.75552754</v>
+        <v>101.83339739</v>
       </c>
       <c r="D190" t="n">
-        <v>101.46379782</v>
+        <v>101.51986662</v>
       </c>
       <c r="E190" t="n">
-        <v>101.12769349</v>
+        <v>101.08539388</v>
       </c>
       <c r="F190" t="n">
-        <v>100.69052476</v>
+        <v>100.72015159</v>
       </c>
       <c r="G190" t="n">
-        <v>101.28355269</v>
+        <v>101.43327345</v>
       </c>
       <c r="H190" t="n">
-        <v>100.53181209</v>
+        <v>101.59197809</v>
       </c>
       <c r="I190" t="n">
-        <v>102.90273464</v>
+        <v>102.8992118</v>
       </c>
       <c r="J190" t="n">
-        <v>101.99930097</v>
+        <v>102.34585045</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>98.33135316000001</v>
+        <v>98.22354946999999</v>
       </c>
       <c r="C191" t="n">
-        <v>101.77891364</v>
+        <v>101.87055694</v>
       </c>
       <c r="D191" t="n">
-        <v>101.49556427</v>
+        <v>101.47941748</v>
       </c>
       <c r="E191" t="n">
-        <v>101.11209633</v>
+        <v>101.06080213</v>
       </c>
       <c r="F191" t="n">
-        <v>100.70364461</v>
+        <v>100.70961995</v>
       </c>
       <c r="G191" t="n">
-        <v>101.33541784</v>
+        <v>101.41662899</v>
       </c>
       <c r="H191" t="n">
-        <v>100.97145994</v>
+        <v>101.80835682</v>
       </c>
       <c r="I191" t="n">
-        <v>102.90932484</v>
+        <v>102.85158232</v>
       </c>
       <c r="J191" t="n">
-        <v>102.10218664</v>
+        <v>102.30534089</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>98.27813037</v>
+        <v>98.25669532000001</v>
       </c>
       <c r="C192" t="n">
-        <v>101.79939581</v>
+        <v>101.93364746</v>
       </c>
       <c r="D192" t="n">
-        <v>101.53609213</v>
+        <v>101.45409767</v>
       </c>
       <c r="E192" t="n">
-        <v>101.09586571</v>
+        <v>101.03985444</v>
       </c>
       <c r="F192" t="n">
-        <v>100.71198257</v>
+        <v>100.7108496</v>
       </c>
       <c r="G192" t="n">
-        <v>101.4128946</v>
+        <v>101.42290603</v>
       </c>
       <c r="H192" t="n">
-        <v>101.31831671</v>
+        <v>101.99300003</v>
       </c>
       <c r="I192" t="n">
-        <v>102.91213816</v>
+        <v>102.79076408</v>
       </c>
       <c r="J192" t="n">
-        <v>102.2983995</v>
+        <v>102.30686782</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>98.23184498000001</v>
+        <v>98.29541018</v>
       </c>
       <c r="C193" t="n">
-        <v>101.83339739</v>
+        <v>101.98155772</v>
       </c>
       <c r="D193" t="n">
-        <v>101.51986662</v>
+        <v>101.44223141</v>
       </c>
       <c r="E193" t="n">
-        <v>101.08539388</v>
+        <v>101.02009209</v>
       </c>
       <c r="F193" t="n">
-        <v>100.72015159</v>
+        <v>100.71653112</v>
       </c>
       <c r="G193" t="n">
-        <v>101.43327345</v>
+        <v>101.44082395</v>
       </c>
       <c r="H193" t="n">
-        <v>101.59197809</v>
+        <v>102.14766431</v>
       </c>
       <c r="I193" t="n">
-        <v>102.8992118</v>
+        <v>102.72746105</v>
       </c>
       <c r="J193" t="n">
-        <v>102.34585045</v>
+        <v>102.34042172</v>
       </c>
     </row>
   </sheetData>
